--- a/table_best_models___spi-12__test.xlsx
+++ b/table_best_models___spi-12__test.xlsx
@@ -426,22 +426,22 @@
         <v>0.278762905</v>
       </c>
       <c r="B2">
-        <v>0.1725651437595544</v>
+        <v>0.1725651437565382</v>
       </c>
       <c r="C2">
-        <v>0.2117673681430239</v>
+        <v>0.2117673681432758</v>
       </c>
       <c r="D2">
-        <v>0.2090303033163837</v>
+        <v>0.2090303033156185</v>
       </c>
       <c r="E2">
-        <v>0.2090303032050009</v>
+        <v>0.2090303032435173</v>
       </c>
       <c r="F2">
-        <v>0.2076944973169945</v>
+        <v>0.2076944972878272</v>
       </c>
       <c r="G2">
-        <v>0.1960010804362453</v>
+        <v>0.1960010805634689</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>0.444861224</v>
       </c>
       <c r="B3">
-        <v>0.3711167915655707</v>
+        <v>0.37111679156287</v>
       </c>
       <c r="C3">
-        <v>0.4101469943390825</v>
+        <v>0.4101469943391393</v>
       </c>
       <c r="D3">
-        <v>0.4094550742660391</v>
+        <v>0.4094550742658738</v>
       </c>
       <c r="E3">
-        <v>0.4094550742419575</v>
+        <v>0.4094550742502849</v>
       </c>
       <c r="F3">
-        <v>0.409177268758314</v>
+        <v>0.4091772687520481</v>
       </c>
       <c r="G3">
-        <v>0.3937363364291433</v>
+        <v>0.3937363364917467</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,22 +472,22 @@
         <v>0.626507386</v>
       </c>
       <c r="B4">
-        <v>0.4277846168584621</v>
+        <v>0.4277846168548822</v>
       </c>
       <c r="C4">
-        <v>0.4723926721571975</v>
+        <v>0.4723926721574218</v>
       </c>
       <c r="D4">
-        <v>0.469814344331438</v>
+        <v>0.4698143443307725</v>
       </c>
       <c r="E4">
-        <v>0.469814344234551</v>
+        <v>0.4698143442680547</v>
       </c>
       <c r="F4">
-        <v>0.4686754332710499</v>
+        <v>0.468675433245763</v>
       </c>
       <c r="G4">
-        <v>0.4446142206428047</v>
+        <v>0.4446142207910933</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,22 +495,22 @@
         <v>0.692550886</v>
       </c>
       <c r="B5">
-        <v>0.4877077986448443</v>
+        <v>0.4877077986414386</v>
       </c>
       <c r="C5">
-        <v>0.5440500199256645</v>
+        <v>0.5440500199258387</v>
       </c>
       <c r="D5">
-        <v>0.5420201657361799</v>
+        <v>0.5420201657356638</v>
       </c>
       <c r="E5">
-        <v>0.5420201656610402</v>
+        <v>0.5420201656870236</v>
       </c>
       <c r="F5">
-        <v>0.541138987022577</v>
+        <v>0.5411389870029736</v>
       </c>
       <c r="G5">
-        <v>0.5083127556570463</v>
+        <v>0.5083127558106677</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,22 +518,22 @@
         <v>0.842026137</v>
       </c>
       <c r="B6">
-        <v>0.7007183798852663</v>
+        <v>0.7007183798829671</v>
       </c>
       <c r="C6">
-        <v>0.7640120874604163</v>
+        <v>0.7640120874605274</v>
       </c>
       <c r="D6">
-        <v>0.7626879114101612</v>
+        <v>0.7626879114098509</v>
       </c>
       <c r="E6">
-        <v>0.7626879113649692</v>
+        <v>0.7626879113805967</v>
       </c>
       <c r="F6">
-        <v>0.7621807637476525</v>
+        <v>0.7621807637359459</v>
       </c>
       <c r="G6">
-        <v>0.7260656649189667</v>
+        <v>0.7260656650557576</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,22 +541,22 @@
         <v>1.197703675</v>
       </c>
       <c r="B7">
-        <v>1.206953671595368</v>
+        <v>1.206953671596364</v>
       </c>
       <c r="C7">
-        <v>1.244085994125709</v>
+        <v>1.24408599412522</v>
       </c>
       <c r="D7">
-        <v>1.249672114691745</v>
+        <v>1.249672114693297</v>
       </c>
       <c r="E7">
-        <v>1.249672114917451</v>
+        <v>1.249672114839401</v>
       </c>
       <c r="F7">
-        <v>1.25243955963046</v>
+        <v>1.252439559689786</v>
       </c>
       <c r="G7">
-        <v>1.201900387369129</v>
+        <v>1.201900387313125</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,22 +564,22 @@
         <v>0.960333763</v>
       </c>
       <c r="B8">
-        <v>0.8449005270140673</v>
+        <v>0.8449005270138352</v>
       </c>
       <c r="C8">
-        <v>0.8613499423676501</v>
+        <v>0.8613499423675004</v>
       </c>
       <c r="D8">
-        <v>0.8627499384173036</v>
+        <v>0.862749938417761</v>
       </c>
       <c r="E8">
-        <v>0.8627499384838742</v>
+        <v>0.8627499384608539</v>
       </c>
       <c r="F8">
-        <v>0.8635609214568627</v>
+        <v>0.8635609214743413</v>
       </c>
       <c r="G8">
-        <v>0.8574873585007771</v>
+        <v>0.8574873584602267</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,22 +587,22 @@
         <v>0.436720642</v>
       </c>
       <c r="B9">
-        <v>0.2079732939259749</v>
+        <v>0.2079732939237854</v>
       </c>
       <c r="C9">
-        <v>0.1992782090362662</v>
+        <v>0.1992782090366281</v>
       </c>
       <c r="D9">
-        <v>0.1942517044656845</v>
+        <v>0.1942517044645079</v>
       </c>
       <c r="E9">
-        <v>0.1942517042944402</v>
+        <v>0.1942517043536567</v>
       </c>
       <c r="F9">
-        <v>0.1921592327133343</v>
+        <v>0.1921592326683494</v>
       </c>
       <c r="G9">
-        <v>0.2394198775975466</v>
+        <v>0.2394198776156344</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,22 +610,22 @@
         <v>-0.228589736</v>
       </c>
       <c r="B10">
-        <v>0.1154630617502653</v>
+        <v>0.1154630617482918</v>
       </c>
       <c r="C10">
-        <v>0.1068857017173747</v>
+        <v>0.1068857017177409</v>
       </c>
       <c r="D10">
-        <v>0.101243029862589</v>
+        <v>0.1012430298614155</v>
       </c>
       <c r="E10">
-        <v>0.101243029691782</v>
+        <v>0.1012430297508474</v>
       </c>
       <c r="F10">
-        <v>0.09919773190540584</v>
+        <v>0.09919773186068913</v>
       </c>
       <c r="G10">
-        <v>0.1472988443872009</v>
+        <v>0.1472988444021374</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,22 +633,22 @@
         <v>-0.296024885</v>
       </c>
       <c r="B11">
-        <v>-0.2357439853620967</v>
+        <v>-0.2357439853633513</v>
       </c>
       <c r="C11">
-        <v>-0.2599530305593379</v>
+        <v>-0.2599530305586065</v>
       </c>
       <c r="D11">
-        <v>-0.2681365835335603</v>
+        <v>-0.268136583535759</v>
       </c>
       <c r="E11">
-        <v>-0.268136583853571</v>
+        <v>-0.2681365837429107</v>
       </c>
       <c r="F11">
-        <v>-0.2719391509562546</v>
+        <v>-0.2719391510399247</v>
       </c>
       <c r="G11">
-        <v>-0.2285593243606489</v>
+        <v>-0.2285593242055106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,22 +656,22 @@
         <v>-0.420720253</v>
       </c>
       <c r="B12">
-        <v>-0.4774586054007306</v>
+        <v>-0.4774586054030582</v>
       </c>
       <c r="C12">
-        <v>-0.4928501941717234</v>
+        <v>-0.492850194170776</v>
       </c>
       <c r="D12">
-        <v>-0.5037233692937219</v>
+        <v>-0.503723369296619</v>
       </c>
       <c r="E12">
-        <v>-0.5037233697153541</v>
+        <v>-0.503723369569553</v>
       </c>
       <c r="F12">
-        <v>-0.5087767608818839</v>
+        <v>-0.5087767609922829</v>
       </c>
       <c r="G12">
-        <v>-0.4635077445212529</v>
+        <v>-0.463507744283926</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,22 +679,22 @@
         <v>-0.425623542</v>
       </c>
       <c r="B13">
-        <v>-0.5211172803293094</v>
+        <v>-0.5211172803315233</v>
       </c>
       <c r="C13">
-        <v>-0.5368830389833266</v>
+        <v>-0.5368830389823613</v>
       </c>
       <c r="D13">
-        <v>-0.5479740376911546</v>
+        <v>-0.5479740376941034</v>
       </c>
       <c r="E13">
-        <v>-0.5479740381202975</v>
+        <v>-0.5479740379718993</v>
       </c>
       <c r="F13">
-        <v>-0.5531137385799638</v>
+        <v>-0.5531137386923156</v>
       </c>
       <c r="G13">
-        <v>-0.5099392177016252</v>
+        <v>-0.5099392174522005</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,22 +702,22 @@
         <v>0.026699591</v>
       </c>
       <c r="B14">
-        <v>0.0194932513237058</v>
+        <v>0.01949325132032503</v>
       </c>
       <c r="C14">
-        <v>0.04191090660876418</v>
+        <v>0.04191090660950259</v>
       </c>
       <c r="D14">
-        <v>0.03109701125389668</v>
+        <v>0.03109701125156264</v>
       </c>
       <c r="E14">
-        <v>0.03109701091418866</v>
+        <v>0.03109701103166029</v>
       </c>
       <c r="F14">
-        <v>0.02704094784865073</v>
+        <v>0.02704094775975922</v>
       </c>
       <c r="G14">
-        <v>0.07768582259004138</v>
+        <v>0.07768582274241967</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,22 +725,22 @@
         <v>0.13916043</v>
       </c>
       <c r="B15">
-        <v>0.1853636825185469</v>
+        <v>0.1853636825151276</v>
       </c>
       <c r="C15">
-        <v>0.2207075016790536</v>
+        <v>0.2207075016797391</v>
       </c>
       <c r="D15">
-        <v>0.2125002891077865</v>
+        <v>0.2125002891056967</v>
       </c>
       <c r="E15">
-        <v>0.2125002888036098</v>
+        <v>0.2125002889087946</v>
       </c>
       <c r="F15">
-        <v>0.208876110122366</v>
+        <v>0.2088761100427999</v>
       </c>
       <c r="G15">
-        <v>0.2392640840404308</v>
+        <v>0.2392640842175906</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,22 +748,22 @@
         <v>-0.207233368</v>
       </c>
       <c r="B16">
-        <v>-0.09128611315124464</v>
+        <v>-0.09128611315440119</v>
       </c>
       <c r="C16">
-        <v>-0.0409324015812856</v>
+        <v>-0.04093240158050826</v>
       </c>
       <c r="D16">
-        <v>-0.05012254606959332</v>
+        <v>-0.05012254607199103</v>
       </c>
       <c r="E16">
-        <v>-0.05012254641855599</v>
+        <v>-0.05012254629788412</v>
       </c>
       <c r="F16">
-        <v>-0.05431649857375161</v>
+        <v>-0.05431649866516515</v>
       </c>
       <c r="G16">
-        <v>-0.03164982997423393</v>
+        <v>-0.03164982973730561</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,22 +771,22 @@
         <v>-0.369649639</v>
       </c>
       <c r="B17">
-        <v>-0.1748033446099978</v>
+        <v>-0.174803344613623</v>
       </c>
       <c r="C17">
-        <v>-0.1693036377330093</v>
+        <v>-0.1693036377322212</v>
       </c>
       <c r="D17">
-        <v>-0.178203953505716</v>
+        <v>-0.1782039535081279</v>
       </c>
       <c r="E17">
-        <v>-0.1782039538567466</v>
+        <v>-0.1782039537353596</v>
       </c>
       <c r="F17">
-        <v>-0.1824195483046182</v>
+        <v>-0.1824195483965617</v>
       </c>
       <c r="G17">
-        <v>-0.148932290953481</v>
+        <v>-0.1489322907443359</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,22 +794,22 @@
         <v>-0.299325805</v>
       </c>
       <c r="B18">
-        <v>-0.09695975629854867</v>
+        <v>-0.09695975630230945</v>
       </c>
       <c r="C18">
-        <v>-0.1031572674332635</v>
+        <v>-0.103157267432596</v>
       </c>
       <c r="D18">
-        <v>-0.1097067851292418</v>
+        <v>-0.1097067851312427</v>
       </c>
       <c r="E18">
-        <v>-0.1097067854204506</v>
+        <v>-0.1097067853197501</v>
       </c>
       <c r="F18">
-        <v>-0.113199873161526</v>
+        <v>-0.1131998732377857</v>
       </c>
       <c r="G18">
-        <v>-0.08336662829829887</v>
+        <v>-0.08336662813044261</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,22 +817,22 @@
         <v>-0.909290358</v>
       </c>
       <c r="B19">
-        <v>-0.8733186784890368</v>
+        <v>-0.8733186784908152</v>
       </c>
       <c r="C19">
-        <v>-0.9026258607328252</v>
+        <v>-0.9026258607315484</v>
       </c>
       <c r="D19">
-        <v>-0.9176292049652727</v>
+        <v>-0.9176292049692324</v>
       </c>
       <c r="E19">
-        <v>-0.9176292055415162</v>
+        <v>-0.9176292053422501</v>
       </c>
       <c r="F19">
-        <v>-0.9245819429182484</v>
+        <v>-0.9245819430692997</v>
       </c>
       <c r="G19">
-        <v>-0.8861102099583404</v>
+        <v>-0.8861102095696293</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,22 +840,22 @@
         <v>-1.006159673</v>
       </c>
       <c r="B20">
-        <v>-0.9569088066774736</v>
+        <v>-0.9569088066778769</v>
       </c>
       <c r="C20">
-        <v>-1.010262692380993</v>
+        <v>-1.010262692379597</v>
       </c>
       <c r="D20">
-        <v>-1.026601595441726</v>
+        <v>-1.026601595446046</v>
       </c>
       <c r="E20">
-        <v>-1.026601596070479</v>
+        <v>-1.026601595853055</v>
       </c>
       <c r="F20">
-        <v>-1.034180793264747</v>
+        <v>-1.034180793429537</v>
       </c>
       <c r="G20">
-        <v>-0.9933916753334713</v>
+        <v>-0.9933916749061793</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -863,22 +863,22 @@
         <v>-1.032778528</v>
       </c>
       <c r="B21">
-        <v>-0.9297481881261282</v>
+        <v>-0.9297481881278522</v>
       </c>
       <c r="C21">
-        <v>-0.9734512895643627</v>
+        <v>-0.9734512895628561</v>
       </c>
       <c r="D21">
-        <v>-0.9910202949755437</v>
+        <v>-0.9910202949801884</v>
       </c>
       <c r="E21">
-        <v>-0.9910202956514996</v>
+        <v>-0.9910202954177529</v>
       </c>
       <c r="F21">
-        <v>-0.9991516518236429</v>
+        <v>-0.9991516520007423</v>
       </c>
       <c r="G21">
-        <v>-0.9453984157572651</v>
+        <v>-0.9453984153251</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,22 +886,22 @@
         <v>-1.351767382</v>
       </c>
       <c r="B22">
-        <v>-1.273693731139417</v>
+        <v>-1.273693731141757</v>
       </c>
       <c r="C22">
-        <v>-1.329072310768808</v>
+        <v>-1.329072310766891</v>
       </c>
       <c r="D22">
-        <v>-1.351607185376125</v>
+        <v>-1.351607185382093</v>
       </c>
       <c r="E22">
-        <v>-1.351607186244739</v>
+        <v>-1.351607185944371</v>
       </c>
       <c r="F22">
-        <v>-1.362111055213153</v>
+        <v>-1.36211105544093</v>
       </c>
       <c r="G22">
-        <v>-1.295422597265595</v>
+        <v>-1.295422596703115</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,22 +909,22 @@
         <v>-1.349975863</v>
       </c>
       <c r="B23">
-        <v>-1.364061201688724</v>
+        <v>-1.364061201693723</v>
       </c>
       <c r="C23">
-        <v>-1.399781814251679</v>
+        <v>-1.399781814249527</v>
       </c>
       <c r="D23">
-        <v>-1.425103712373315</v>
+        <v>-1.425103712380033</v>
       </c>
       <c r="E23">
-        <v>-1.425103713351079</v>
+        <v>-1.425103713012967</v>
       </c>
       <c r="F23">
-        <v>-1.43694746072203</v>
+        <v>-1.436947460978502</v>
       </c>
       <c r="G23">
-        <v>-1.350476491942814</v>
+        <v>-1.350476491340525</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,22 +932,22 @@
         <v>-1.316829649</v>
       </c>
       <c r="B24">
-        <v>-1.2964775974757</v>
+        <v>-1.296477597478247</v>
       </c>
       <c r="C24">
-        <v>-1.354360620088293</v>
+        <v>-1.35436062008634</v>
       </c>
       <c r="D24">
-        <v>-1.377348526396169</v>
+        <v>-1.377348526402267</v>
       </c>
       <c r="E24">
-        <v>-1.37734852728356</v>
+        <v>-1.377348526976699</v>
       </c>
       <c r="F24">
-        <v>-1.388099136841694</v>
+        <v>-1.388099137074467</v>
       </c>
       <c r="G24">
-        <v>-1.315887834131882</v>
+        <v>-1.315887833568148</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -955,22 +955,22 @@
         <v>-1.162164831</v>
       </c>
       <c r="B25">
-        <v>-1.130354771559476</v>
+        <v>-1.130354771562407</v>
       </c>
       <c r="C25">
-        <v>-1.179108829461567</v>
+        <v>-1.179108829459755</v>
       </c>
       <c r="D25">
-        <v>-1.200429993802109</v>
+        <v>-1.200429993807765</v>
       </c>
       <c r="E25">
-        <v>-1.200429994625232</v>
+        <v>-1.200429994340595</v>
       </c>
       <c r="F25">
-        <v>-1.210400123497321</v>
+        <v>-1.210400123713229</v>
       </c>
       <c r="G25">
-        <v>-1.138504091847359</v>
+        <v>-1.13850409133788</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -978,22 +978,22 @@
         <v>-2.374889683</v>
       </c>
       <c r="B26">
-        <v>-2.06327236737951</v>
+        <v>-2.063272367374358</v>
       </c>
       <c r="C26">
-        <v>-2.191095127491778</v>
+        <v>-2.191095127489394</v>
       </c>
       <c r="D26">
-        <v>-2.219207703419144</v>
+        <v>-2.219207703426577</v>
       </c>
       <c r="E26">
-        <v>-2.2192077045009</v>
+        <v>-2.219207704126827</v>
       </c>
       <c r="F26">
-        <v>-2.232297764891967</v>
+        <v>-2.232297765175668</v>
       </c>
       <c r="G26">
-        <v>-2.235605779068131</v>
+        <v>-2.235605778131953</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1001,22 +1001,22 @@
         <v>-2.362980599</v>
       </c>
       <c r="B27">
-        <v>-2.167017838912317</v>
+        <v>-2.167017838908409</v>
       </c>
       <c r="C27">
-        <v>-2.242829833974873</v>
+        <v>-2.242829833972606</v>
       </c>
       <c r="D27">
-        <v>-2.269543485418362</v>
+        <v>-2.26954348542542</v>
       </c>
       <c r="E27">
-        <v>-2.269543486445505</v>
+        <v>-2.269543486090317</v>
       </c>
       <c r="F27">
-        <v>-2.28196390533394</v>
+        <v>-2.281963905603286</v>
       </c>
       <c r="G27">
-        <v>-2.332178463542723</v>
+        <v>-2.332178462525504</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1024,22 +1024,22 @@
         <v>-1.854352008</v>
       </c>
       <c r="B28">
-        <v>-1.612814861886101</v>
+        <v>-1.612814861884535</v>
       </c>
       <c r="C28">
-        <v>-1.677916796434088</v>
+        <v>-1.677916796432195</v>
       </c>
       <c r="D28">
-        <v>-1.700014033441621</v>
+        <v>-1.700014033447471</v>
       </c>
       <c r="E28">
-        <v>-1.700014034293044</v>
+        <v>-1.700014033998621</v>
       </c>
       <c r="F28">
-        <v>-1.710269886942969</v>
+        <v>-1.71026988716609</v>
       </c>
       <c r="G28">
-        <v>-1.711099600630291</v>
+        <v>-1.71109959989883</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1047,22 +1047,22 @@
         <v>-1.20254712</v>
       </c>
       <c r="B29">
-        <v>-0.7133074629971459</v>
+        <v>-0.7133074630007163</v>
       </c>
       <c r="C29">
-        <v>-0.7160588878477118</v>
+        <v>-0.7160588878465588</v>
       </c>
       <c r="D29">
-        <v>-0.7294430134205042</v>
+        <v>-0.7294430134240464</v>
       </c>
       <c r="E29">
-        <v>-0.7294430139360056</v>
+        <v>-0.7294430137577445</v>
       </c>
       <c r="F29">
-        <v>-0.7356327874941605</v>
+        <v>-0.7356327876291792</v>
       </c>
       <c r="G29">
-        <v>-0.6915835407558342</v>
+        <v>-0.6915835404347206</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1070,22 +1070,22 @@
         <v>-1.403060604</v>
       </c>
       <c r="B30">
-        <v>-1.099663054438317</v>
+        <v>-1.09966305444002</v>
       </c>
       <c r="C30">
-        <v>-1.116429807780836</v>
+        <v>-1.116429807779472</v>
       </c>
       <c r="D30">
-        <v>-1.132304107372294</v>
+        <v>-1.132304107376489</v>
       </c>
       <c r="E30">
-        <v>-1.132304107982845</v>
+        <v>-1.132304107771715</v>
       </c>
       <c r="F30">
-        <v>-1.139640852688548</v>
+        <v>-1.139640852848483</v>
       </c>
       <c r="G30">
-        <v>-1.121948226866577</v>
+        <v>-1.12194822639214</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,22 +1093,22 @@
         <v>-1.491966078</v>
       </c>
       <c r="B31">
-        <v>-1.112083237278637</v>
+        <v>-1.112083237280334</v>
       </c>
       <c r="C31">
-        <v>-1.132190338212756</v>
+        <v>-1.132190338211361</v>
       </c>
       <c r="D31">
-        <v>-1.148439683170381</v>
+        <v>-1.148439683174682</v>
       </c>
       <c r="E31">
-        <v>-1.148439683796319</v>
+        <v>-1.148439683579868</v>
       </c>
       <c r="F31">
-        <v>-1.155971064428929</v>
+        <v>-1.15597106459293</v>
       </c>
       <c r="G31">
-        <v>-1.13520425055967</v>
+        <v>-1.135204250080333</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1116,22 +1116,22 @@
         <v>-1.323266071</v>
       </c>
       <c r="B32">
-        <v>-0.8596635358489104</v>
+        <v>-0.8596635358521639</v>
       </c>
       <c r="C32">
-        <v>-0.855261274706556</v>
+        <v>-0.8552612747054298</v>
       </c>
       <c r="D32">
-        <v>-0.8684399918934858</v>
+        <v>-0.8684399918969627</v>
       </c>
       <c r="E32">
-        <v>-0.8684399923994961</v>
+        <v>-0.868439992224517</v>
       </c>
       <c r="F32">
-        <v>-0.8745307378103373</v>
+        <v>-0.8745307379429249</v>
       </c>
       <c r="G32">
-        <v>-0.8486274995213872</v>
+        <v>-0.848627499158727</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,22 +1139,22 @@
         <v>-1.144581365</v>
       </c>
       <c r="B33">
-        <v>-0.7203459294105199</v>
+        <v>-0.7203459294139135</v>
       </c>
       <c r="C33">
-        <v>-0.7134787339926679</v>
+        <v>-0.7134787339916555</v>
       </c>
       <c r="D33">
-        <v>-0.7253103504484317</v>
+        <v>-0.7253103504515525</v>
       </c>
       <c r="E33">
-        <v>-0.7253103509025971</v>
+        <v>-0.7253103507455461</v>
       </c>
       <c r="F33">
-        <v>-0.7307719368836227</v>
+        <v>-0.7307719370026069</v>
       </c>
       <c r="G33">
-        <v>-0.7016930144273761</v>
+        <v>-0.7016930141178348</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1162,22 +1162,22 @@
         <v>-0.89859408</v>
       </c>
       <c r="B34">
-        <v>-0.5404287851437057</v>
+        <v>-0.5404287851468489</v>
       </c>
       <c r="C34">
-        <v>-0.536291432554698</v>
+        <v>-0.5362914325537921</v>
       </c>
       <c r="D34">
-        <v>-0.5468950843583528</v>
+        <v>-0.5468950843611383</v>
       </c>
       <c r="E34">
-        <v>-0.5468950847637475</v>
+        <v>-0.5468950846235613</v>
       </c>
       <c r="F34">
-        <v>-0.5517618276503319</v>
+        <v>-0.5517618277565083</v>
       </c>
       <c r="G34">
-        <v>-0.5195406883684842</v>
+        <v>-0.5195406881093685</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1185,22 +1185,22 @@
         <v>-1.208296977</v>
       </c>
       <c r="B35">
-        <v>-0.7023345218705983</v>
+        <v>-0.7023345218721273</v>
       </c>
       <c r="C35">
-        <v>-0.7084314210388062</v>
+        <v>-0.7084314210378974</v>
       </c>
       <c r="D35">
-        <v>-0.7191022026878666</v>
+        <v>-0.7191022026906388</v>
       </c>
       <c r="E35">
-        <v>-0.7191022030913381</v>
+        <v>-0.719102202951817</v>
       </c>
       <c r="F35">
-        <v>-0.7239201869117814</v>
+        <v>-0.7239201870173599</v>
       </c>
       <c r="G35">
-        <v>-0.7078418718612077</v>
+        <v>-0.7078418715600006</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1208,22 +1208,22 @@
         <v>-1.259727733</v>
       </c>
       <c r="B36">
-        <v>-0.7006244839298801</v>
+        <v>-0.7006244839313758</v>
       </c>
       <c r="C36">
-        <v>-0.7071923379220848</v>
+        <v>-0.7071923379211776</v>
       </c>
       <c r="D36">
-        <v>-0.7178270148441698</v>
+        <v>-0.7178270148469375</v>
       </c>
       <c r="E36">
-        <v>-0.7178270152469753</v>
+        <v>-0.7178270151076845</v>
       </c>
       <c r="F36">
-        <v>-0.7226387201058065</v>
+        <v>-0.7226387202112171</v>
       </c>
       <c r="G36">
-        <v>-0.706717021008864</v>
+        <v>-0.7067170207077795</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,22 +1231,22 @@
         <v>-1.383918</v>
       </c>
       <c r="B37">
-        <v>-0.7909431814517194</v>
+        <v>-0.7909431814531883</v>
       </c>
       <c r="C37">
-        <v>-0.7963800683567124</v>
+        <v>-0.7963800683557558</v>
       </c>
       <c r="D37">
-        <v>-0.8075894300821355</v>
+        <v>-0.8075894300850623</v>
       </c>
       <c r="E37">
-        <v>-0.8075894305080876</v>
+        <v>-0.8075894303607927</v>
       </c>
       <c r="F37">
-        <v>-0.8126863511007039</v>
+        <v>-0.8126863512122036</v>
       </c>
       <c r="G37">
-        <v>-0.8012833740752759</v>
+        <v>-0.801283373741968</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,22 +1254,22 @@
         <v>-0.507959834</v>
       </c>
       <c r="B38">
-        <v>-0.1674945045605571</v>
+        <v>-0.167494504564316</v>
       </c>
       <c r="C38">
-        <v>-0.1901078508691844</v>
+        <v>-0.1901078508686297</v>
       </c>
       <c r="D38">
-        <v>-0.1965222635561305</v>
+        <v>-0.19652226355782</v>
       </c>
       <c r="E38">
-        <v>-0.1965222638020233</v>
+        <v>-0.1965222637169931</v>
       </c>
       <c r="F38">
-        <v>-0.1994601294405594</v>
+        <v>-0.1994601295049093</v>
       </c>
       <c r="G38">
-        <v>-0.1742167258277789</v>
+        <v>-0.1742167256863216</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1277,22 +1277,22 @@
         <v>-0.476870668</v>
       </c>
       <c r="B39">
-        <v>-0.2070115622544359</v>
+        <v>-0.207011562256822</v>
       </c>
       <c r="C39">
-        <v>-0.1647365539154955</v>
+        <v>-0.1647365539150142</v>
       </c>
       <c r="D39">
-        <v>-0.1702112442235624</v>
+        <v>-0.1702112442250324</v>
       </c>
       <c r="E39">
-        <v>-0.1702112444375151</v>
+        <v>-0.1702112443635299</v>
       </c>
       <c r="F39">
-        <v>-0.1727757950427043</v>
+        <v>-0.172775795098726</v>
       </c>
       <c r="G39">
-        <v>-0.1499098382336309</v>
+        <v>-0.1499098381129114</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,22 +1300,22 @@
         <v>-0.803788133</v>
       </c>
       <c r="B40">
-        <v>-0.5778277134482384</v>
+        <v>-0.5778277134518562</v>
       </c>
       <c r="C40">
-        <v>-0.5660124834367131</v>
+        <v>-0.5660124834358298</v>
       </c>
       <c r="D40">
-        <v>-0.5765273600490962</v>
+        <v>-0.5765273600518352</v>
       </c>
       <c r="E40">
-        <v>-0.5765273604477023</v>
+        <v>-0.5765273603098636</v>
       </c>
       <c r="F40">
-        <v>-0.5813306120377971</v>
+        <v>-0.5813306121422616</v>
       </c>
       <c r="G40">
-        <v>-0.5536730405487127</v>
+        <v>-0.5536730402827519</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,22 +1323,22 @@
         <v>-1.016775122</v>
       </c>
       <c r="B41">
-        <v>-1.115705939911172</v>
+        <v>-1.115705939912659</v>
       </c>
       <c r="C41">
-        <v>-1.120715707920798</v>
+        <v>-1.120715707919582</v>
       </c>
       <c r="D41">
-        <v>-1.135025947278086</v>
+        <v>-1.135025947281842</v>
       </c>
       <c r="E41">
-        <v>-1.135025947824662</v>
+        <v>-1.135025947635655</v>
       </c>
       <c r="F41">
-        <v>-1.141602551275012</v>
+        <v>-1.14160255141822</v>
       </c>
       <c r="G41">
-        <v>-1.141990292475508</v>
+        <v>-1.141990292006422</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,22 +1346,22 @@
         <v>-0.429762109</v>
       </c>
       <c r="B42">
-        <v>-0.4401632795655049</v>
+        <v>-0.4401632795700461</v>
       </c>
       <c r="C42">
-        <v>-0.4482593396310867</v>
+        <v>-0.4482593396299852</v>
       </c>
       <c r="D42">
-        <v>-0.461101517840025</v>
+        <v>-0.461101517843432</v>
       </c>
       <c r="E42">
-        <v>-0.4611015183358698</v>
+        <v>-0.4611015181644058</v>
       </c>
       <c r="F42">
-        <v>-0.4670787038697393</v>
+        <v>-0.4670787039996955</v>
       </c>
       <c r="G42">
-        <v>-0.4200953869877436</v>
+        <v>-0.420095386691189</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,22 +1369,22 @@
         <v>0.294720854</v>
       </c>
       <c r="B43">
-        <v>0.5051672873223627</v>
+        <v>0.5051672873192186</v>
       </c>
       <c r="C43">
-        <v>0.5904372667012024</v>
+        <v>0.5904372667016768</v>
       </c>
       <c r="D43">
-        <v>0.5849165487761691</v>
+        <v>0.5849165487747254</v>
       </c>
       <c r="E43">
-        <v>0.5849165485660338</v>
+        <v>0.5849165486386989</v>
       </c>
       <c r="F43">
-        <v>0.5824086728409618</v>
+        <v>0.5824086727859795</v>
       </c>
       <c r="G43">
-        <v>0.5418309865784965</v>
+        <v>0.541830986868886</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,22 +1392,22 @@
         <v>0.297543939</v>
       </c>
       <c r="B44">
-        <v>0.6603100672422908</v>
+        <v>0.6603100672396829</v>
       </c>
       <c r="C44">
-        <v>0.7450805418789518</v>
+        <v>0.7450805418792643</v>
       </c>
       <c r="D44">
-        <v>0.741526242361004</v>
+        <v>0.7415262423600851</v>
       </c>
       <c r="E44">
-        <v>0.7415262422272508</v>
+        <v>0.7415262422735028</v>
       </c>
       <c r="F44">
-        <v>0.7399622519289113</v>
+        <v>0.739962251894033</v>
       </c>
       <c r="G44">
-        <v>0.6954764022974523</v>
+        <v>0.6954764025328104</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,22 +1415,22 @@
         <v>0.6970562769999999</v>
       </c>
       <c r="B45">
-        <v>0.9938255149666979</v>
+        <v>0.9938255149660643</v>
       </c>
       <c r="C45">
-        <v>1.083352771832562</v>
+        <v>1.08335277183252</v>
       </c>
       <c r="D45">
-        <v>1.083921276046222</v>
+        <v>1.083921276046402</v>
       </c>
       <c r="E45">
-        <v>1.08392127607234</v>
+        <v>1.083921276063309</v>
       </c>
       <c r="F45">
-        <v>1.084287514471272</v>
+        <v>1.084287514478306</v>
       </c>
       <c r="G45">
-        <v>0.9962494110669292</v>
+        <v>0.9962494112841163</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,22 +1438,22 @@
         <v>0.537453922</v>
       </c>
       <c r="B46">
-        <v>1.056924099809913</v>
+        <v>1.056924099810267</v>
       </c>
       <c r="C46">
-        <v>1.130765449866387</v>
+        <v>1.13076544986625</v>
       </c>
       <c r="D46">
-        <v>1.132394803126275</v>
+        <v>1.132394803126745</v>
       </c>
       <c r="E46">
-        <v>1.132394803194568</v>
+        <v>1.132394803170953</v>
       </c>
       <c r="F46">
-        <v>1.133267883194414</v>
+        <v>1.133267883212495</v>
       </c>
       <c r="G46">
-        <v>1.051167024364507</v>
+        <v>1.051167024529392</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1461,22 +1461,22 @@
         <v>0.744423795</v>
       </c>
       <c r="B47">
-        <v>1.024682355156095</v>
+        <v>1.024682355156574</v>
       </c>
       <c r="C47">
-        <v>1.096819297375931</v>
+        <v>1.096819297375833</v>
       </c>
       <c r="D47">
-        <v>1.097893354421259</v>
+        <v>1.097893354421583</v>
       </c>
       <c r="E47">
-        <v>1.097893354468354</v>
+        <v>1.097893354452068</v>
       </c>
       <c r="F47">
-        <v>1.098488422969462</v>
+        <v>1.098488422981905</v>
       </c>
       <c r="G47">
-        <v>1.00933848316076</v>
+        <v>1.00933848336329</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,22 +1484,22 @@
         <v>0.901568559</v>
       </c>
       <c r="B48">
-        <v>1.050981261819755</v>
+        <v>1.050981261819225</v>
       </c>
       <c r="C48">
-        <v>1.168308714881841</v>
+        <v>1.1683087148819</v>
       </c>
       <c r="D48">
-        <v>1.167576455346213</v>
+        <v>1.167576455346043</v>
       </c>
       <c r="E48">
-        <v>1.167576455321476</v>
+        <v>1.16757645533003</v>
       </c>
       <c r="F48">
-        <v>1.167292708662812</v>
+        <v>1.167292708656382</v>
       </c>
       <c r="G48">
-        <v>1.029116583980271</v>
+        <v>1.029116584378212</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1507,22 +1507,22 @@
         <v>0.868054445</v>
       </c>
       <c r="B49">
-        <v>1.003221190954989</v>
+        <v>1.003221190953869</v>
       </c>
       <c r="C49">
-        <v>1.13100653244935</v>
+        <v>1.131006532449429</v>
       </c>
       <c r="D49">
-        <v>1.130075621242054</v>
+        <v>1.130075621241826</v>
       </c>
       <c r="E49">
-        <v>1.130075621208829</v>
+        <v>1.130075621220318</v>
       </c>
       <c r="F49">
-        <v>1.129692666110494</v>
+        <v>1.12969266610185</v>
       </c>
       <c r="G49">
-        <v>0.9849035199783549</v>
+        <v>0.9849035204015697</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,22 +1530,22 @@
         <v>0.277593737</v>
       </c>
       <c r="B50">
-        <v>0.6329727548092978</v>
+        <v>0.6329727548056544</v>
       </c>
       <c r="C50">
-        <v>0.7497336964129803</v>
+        <v>0.7497336964133239</v>
       </c>
       <c r="D50">
-        <v>0.7457664627116903</v>
+        <v>0.7457664627106444</v>
       </c>
       <c r="E50">
-        <v>0.7457664625594584</v>
+        <v>0.7457664626121006</v>
       </c>
       <c r="F50">
-        <v>0.7439479605049912</v>
+        <v>0.7439479604651533</v>
       </c>
       <c r="G50">
-        <v>0.6481138075292511</v>
+        <v>0.6481138079208718</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1553,22 +1553,22 @@
         <v>0.21477772</v>
       </c>
       <c r="B51">
-        <v>0.4759002703912745</v>
+        <v>0.4759002703867012</v>
       </c>
       <c r="C51">
-        <v>0.5946150273210528</v>
+        <v>0.5946150273215686</v>
       </c>
       <c r="D51">
-        <v>0.5887086954882108</v>
+        <v>0.588708695486637</v>
       </c>
       <c r="E51">
-        <v>0.5887086952591332</v>
+        <v>0.5887086953383486</v>
       </c>
       <c r="F51">
-        <v>0.5859661224987565</v>
+        <v>0.5859661224387863</v>
       </c>
       <c r="G51">
-        <v>0.5018578746399351</v>
+        <v>0.5018578750653658</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1576,22 +1576,22 @@
         <v>0.222558601</v>
       </c>
       <c r="B52">
-        <v>0.6221356225510626</v>
+        <v>0.6221356225472181</v>
       </c>
       <c r="C52">
-        <v>0.7498428950447159</v>
+        <v>0.7498428950451047</v>
       </c>
       <c r="D52">
-        <v>0.7453001879493882</v>
+        <v>0.7453001879481881</v>
       </c>
       <c r="E52">
-        <v>0.7453001877746968</v>
+        <v>0.7453001878351053</v>
       </c>
       <c r="F52">
-        <v>0.7431972849128083</v>
+        <v>0.743197284867034</v>
       </c>
       <c r="G52">
-        <v>0.6316642433354525</v>
+        <v>0.6316642437892924</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1599,22 +1599,22 @@
         <v>0.670515246</v>
       </c>
       <c r="B53">
-        <v>1.185115375368837</v>
+        <v>1.185115375367895</v>
       </c>
       <c r="C53">
-        <v>1.368572275685125</v>
+        <v>1.368572275685037</v>
       </c>
       <c r="D53">
-        <v>1.369554659515676</v>
+        <v>1.369554659515949</v>
       </c>
       <c r="E53">
-        <v>1.369554659555327</v>
+        <v>1.369554659541616</v>
       </c>
       <c r="F53">
-        <v>1.37003625024065</v>
+        <v>1.370036250251055</v>
       </c>
       <c r="G53">
-        <v>1.126713731017399</v>
+        <v>1.126713731647132</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1622,22 +1622,22 @@
         <v>0.668332347</v>
       </c>
       <c r="B54">
-        <v>1.183354780966159</v>
+        <v>1.18335478096576</v>
       </c>
       <c r="C54">
-        <v>1.320296682708922</v>
+        <v>1.320296682708662</v>
       </c>
       <c r="D54">
-        <v>1.32338185267883</v>
+        <v>1.323381852679667</v>
       </c>
       <c r="E54">
-        <v>1.323381852800557</v>
+        <v>1.323381852758463</v>
       </c>
       <c r="F54">
-        <v>1.324883051513808</v>
+        <v>1.324883051545835</v>
       </c>
       <c r="G54">
-        <v>1.145925965948581</v>
+        <v>1.145925966332086</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1645,22 +1645,22 @@
         <v>0.600753663</v>
       </c>
       <c r="B55">
-        <v>0.8471294471921245</v>
+        <v>0.8471294471905598</v>
       </c>
       <c r="C55">
-        <v>0.9536704396290407</v>
+        <v>0.9536704396289585</v>
       </c>
       <c r="D55">
-        <v>0.9545997171653831</v>
+        <v>0.9545997171656446</v>
       </c>
       <c r="E55">
-        <v>0.9545997172034542</v>
+        <v>0.9545997171902891</v>
       </c>
       <c r="F55">
-        <v>0.9550678392183556</v>
+        <v>0.9550678392283672</v>
       </c>
       <c r="G55">
-        <v>0.8310657801219674</v>
+        <v>0.831065780427506</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1668,22 +1668,22 @@
         <v>0.490908996</v>
       </c>
       <c r="B56">
-        <v>0.7503694895246522</v>
+        <v>0.7503694895223353</v>
       </c>
       <c r="C56">
-        <v>0.8563117919395382</v>
+        <v>0.8563117919395061</v>
       </c>
       <c r="D56">
-        <v>0.8566861672940741</v>
+        <v>0.8566861672941819</v>
       </c>
       <c r="E56">
-        <v>0.8566861673097569</v>
+        <v>0.8566861673043337</v>
       </c>
       <c r="F56">
-        <v>0.8568846326365194</v>
+        <v>0.8568846326406642</v>
       </c>
       <c r="G56">
-        <v>0.7444894625920881</v>
+        <v>0.7444894628851394</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1691,22 +1691,22 @@
         <v>0.124636728</v>
       </c>
       <c r="B57">
-        <v>0.2074319283826536</v>
+        <v>0.2074319283775729</v>
       </c>
       <c r="C57">
-        <v>0.3212937379214493</v>
+        <v>0.3212937379220623</v>
       </c>
       <c r="D57">
-        <v>0.3143059185323769</v>
+        <v>0.3143059185304813</v>
       </c>
       <c r="E57">
-        <v>0.3143059182564854</v>
+        <v>0.314305918351889</v>
       </c>
       <c r="F57">
-        <v>0.3109735839856669</v>
+        <v>0.3109735839133341</v>
       </c>
       <c r="G57">
-        <v>0.2311578508971678</v>
+        <v>0.2311578513512813</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1714,22 +1714,22 @@
         <v>0.20714928</v>
       </c>
       <c r="B58">
-        <v>0.2425388387554355</v>
+        <v>0.2425388387508944</v>
       </c>
       <c r="C58">
-        <v>0.3426440538119402</v>
+        <v>0.3426440538124692</v>
       </c>
       <c r="D58">
-        <v>0.3365299196965394</v>
+        <v>0.3365299196948935</v>
       </c>
       <c r="E58">
-        <v>0.3365299194569921</v>
+        <v>0.3365299195398279</v>
       </c>
       <c r="F58">
-        <v>0.3336294588585004</v>
+        <v>0.3336294587956703</v>
       </c>
       <c r="G58">
-        <v>0.2638313196397799</v>
+        <v>0.2638313200355087</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1737,22 +1737,22 @@
         <v>0.566646485</v>
       </c>
       <c r="B59">
-        <v>0.9190203116035918</v>
+        <v>0.9190203116022025</v>
       </c>
       <c r="C59">
-        <v>1.01285312894123</v>
+        <v>1.012853128941149</v>
       </c>
       <c r="D59">
-        <v>1.013732958788045</v>
+        <v>1.013732958788309</v>
       </c>
       <c r="E59">
-        <v>1.013732958826349</v>
+        <v>1.013732958813104</v>
       </c>
       <c r="F59">
-        <v>1.014210549047723</v>
+        <v>1.01421054905782</v>
       </c>
       <c r="G59">
-        <v>0.9106419932536467</v>
+        <v>0.9106419935031707</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1760,22 +1760,22 @@
         <v>0.703800792</v>
       </c>
       <c r="B60">
-        <v>0.9779504577962976</v>
+        <v>0.9779504577954887</v>
       </c>
       <c r="C60">
-        <v>1.058399193150094</v>
+        <v>1.058399193149869</v>
       </c>
       <c r="D60">
-        <v>1.061024063466403</v>
+        <v>1.061024063467133</v>
       </c>
       <c r="E60">
-        <v>1.061024063572569</v>
+        <v>1.061024063535857</v>
       </c>
       <c r="F60">
-        <v>1.062341312061815</v>
+        <v>1.062341312089778</v>
       </c>
       <c r="G60">
-        <v>0.9732962332677275</v>
+        <v>0.9732962334192573</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1783,22 +1783,22 @@
         <v>0.6773799150000001</v>
       </c>
       <c r="B61">
-        <v>0.9201589647104251</v>
+        <v>0.9201589647086119</v>
       </c>
       <c r="C61">
-        <v>1.018153672769004</v>
+        <v>1.01815367276893</v>
       </c>
       <c r="D61">
-        <v>1.019081952787142</v>
+        <v>1.019081952787412</v>
       </c>
       <c r="E61">
-        <v>1.019081952826357</v>
+        <v>1.019081952812797</v>
       </c>
       <c r="F61">
-        <v>1.019597488307612</v>
+        <v>1.019597488318047</v>
       </c>
       <c r="G61">
-        <v>0.9240766826307494</v>
+        <v>0.9240766828572289</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1806,22 +1806,22 @@
         <v>0.568899519</v>
       </c>
       <c r="B62">
-        <v>0.9440522357601084</v>
+        <v>0.9440522357584259</v>
       </c>
       <c r="C62">
-        <v>1.041883271309856</v>
+        <v>1.041883271309752</v>
       </c>
       <c r="D62">
-        <v>1.043228369933991</v>
+        <v>1.043228369934369</v>
       </c>
       <c r="E62">
-        <v>1.043228369988985</v>
+        <v>1.043228369969968</v>
       </c>
       <c r="F62">
-        <v>1.043947068413936</v>
+        <v>1.043947068428554</v>
       </c>
       <c r="G62">
-        <v>0.9505687109113712</v>
+        <v>0.9505687111183414</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1829,22 +1829,22 @@
         <v>1.937580523</v>
       </c>
       <c r="B63">
-        <v>1.718047989371187</v>
+        <v>1.718047989373956</v>
       </c>
       <c r="C63">
-        <v>1.918614307359615</v>
+        <v>1.91861430735933</v>
       </c>
       <c r="D63">
-        <v>1.922180117554429</v>
+        <v>1.922180117555384</v>
       </c>
       <c r="E63">
-        <v>1.92218011769337</v>
+        <v>1.922180117645324</v>
       </c>
       <c r="F63">
-        <v>1.923925077793189</v>
+        <v>1.923925077829861</v>
       </c>
       <c r="G63">
-        <v>1.645199758121015</v>
+        <v>1.645199758761506</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1852,22 +1852,22 @@
         <v>2.026030569</v>
       </c>
       <c r="B64">
-        <v>1.721391953461789</v>
+        <v>1.721391953464553</v>
       </c>
       <c r="C64">
-        <v>1.903508140331163</v>
+        <v>1.90350814033088</v>
       </c>
       <c r="D64">
-        <v>1.907056391159771</v>
+        <v>1.907056391160726</v>
       </c>
       <c r="E64">
-        <v>1.907056391298551</v>
+        <v>1.907056391250561</v>
       </c>
       <c r="F64">
-        <v>1.908802922908813</v>
+        <v>1.908802922945455</v>
       </c>
       <c r="G64">
-        <v>1.658834391660883</v>
+        <v>1.658834392223029</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1875,22 +1875,22 @@
         <v>2.024119212</v>
       </c>
       <c r="B65">
-        <v>1.700467487572059</v>
+        <v>1.700467487574502</v>
       </c>
       <c r="C65">
-        <v>1.826354528945673</v>
+        <v>1.826354528945391</v>
       </c>
       <c r="D65">
-        <v>1.829821746582527</v>
+        <v>1.829821746583473</v>
       </c>
       <c r="E65">
-        <v>1.829821746720186</v>
+        <v>1.829821746672583</v>
       </c>
       <c r="F65">
-        <v>1.831555835806897</v>
+        <v>1.831555835843249</v>
       </c>
       <c r="G65">
-        <v>1.664297380943479</v>
+        <v>1.664297381280956</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1898,22 +1898,22 @@
         <v>1.756726246</v>
       </c>
       <c r="B66">
-        <v>1.420942986827007</v>
+        <v>1.420942986827279</v>
       </c>
       <c r="C66">
-        <v>1.540091505383734</v>
+        <v>1.540091505383543</v>
       </c>
       <c r="D66">
-        <v>1.54253297925194</v>
+        <v>1.542532979252615</v>
       </c>
       <c r="E66">
-        <v>1.542532979349982</v>
+        <v>1.542532979316079</v>
       </c>
       <c r="F66">
-        <v>1.543796842750569</v>
+        <v>1.543796842776565</v>
       </c>
       <c r="G66">
-        <v>1.414247298892512</v>
+        <v>1.414247299160975</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1921,22 +1921,22 @@
         <v>1.327422035</v>
       </c>
       <c r="B67">
-        <v>0.9614348705262985</v>
+        <v>0.9614348705240248</v>
       </c>
       <c r="C67">
-        <v>1.035215283498739</v>
+        <v>1.035215283498972</v>
       </c>
       <c r="D67">
-        <v>1.032699377148831</v>
+        <v>1.032699377148199</v>
       </c>
       <c r="E67">
-        <v>1.032699377056853</v>
+        <v>1.032699377088659</v>
       </c>
       <c r="F67">
-        <v>1.031679674873897</v>
+        <v>1.031679674850116</v>
       </c>
       <c r="G67">
-        <v>1.006156397550974</v>
+        <v>1.006156397698353</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1944,22 +1944,22 @@
         <v>1.49137015</v>
       </c>
       <c r="B68">
-        <v>1.072799718698655</v>
+        <v>1.07279971869775</v>
       </c>
       <c r="C68">
-        <v>1.125273460425766</v>
+        <v>1.125273460425797</v>
       </c>
       <c r="D68">
-        <v>1.125032276769909</v>
+        <v>1.125032276769897</v>
       </c>
       <c r="E68">
-        <v>1.125032276768105</v>
+        <v>1.125032276768729</v>
       </c>
       <c r="F68">
-        <v>1.125096874407866</v>
+        <v>1.125096874407709</v>
       </c>
       <c r="G68">
-        <v>1.108068406553607</v>
+        <v>1.108068406600607</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1967,22 +1967,22 @@
         <v>1.563162867</v>
       </c>
       <c r="B69">
-        <v>1.169729055005258</v>
+        <v>1.16972905500528</v>
       </c>
       <c r="C69">
-        <v>1.223066239608911</v>
+        <v>1.223066239608862</v>
       </c>
       <c r="D69">
-        <v>1.223755009862119</v>
+        <v>1.223755009862353</v>
       </c>
       <c r="E69">
-        <v>1.223755009896113</v>
+        <v>1.223755009884358</v>
       </c>
       <c r="F69">
-        <v>1.224251291158676</v>
+        <v>1.224251291167902</v>
       </c>
       <c r="G69">
-        <v>1.197823056383525</v>
+        <v>1.197823056425501</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1990,22 +1990,22 @@
         <v>2.17485842</v>
       </c>
       <c r="B70">
-        <v>1.478779232196517</v>
+        <v>1.478779232197249</v>
       </c>
       <c r="C70">
-        <v>1.562111987749262</v>
+        <v>1.562111987749178</v>
       </c>
       <c r="D70">
-        <v>1.563348130815228</v>
+        <v>1.56334813081559</v>
       </c>
       <c r="E70">
-        <v>1.563348130867854</v>
+        <v>1.563348130849656</v>
       </c>
       <c r="F70">
-        <v>1.564083225810632</v>
+        <v>1.564083225824793</v>
       </c>
       <c r="G70">
-        <v>1.49993371284563</v>
+        <v>1.49993371297438</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2013,22 +2013,22 @@
         <v>2.042542925</v>
       </c>
       <c r="B71">
-        <v>1.173610262856102</v>
+        <v>1.173610262853094</v>
       </c>
       <c r="C71">
-        <v>1.328505607203489</v>
+        <v>1.328505607203807</v>
       </c>
       <c r="D71">
-        <v>1.325044669241171</v>
+        <v>1.325044669240259</v>
       </c>
       <c r="E71">
-        <v>1.325044669108462</v>
+        <v>1.325044669154353</v>
       </c>
       <c r="F71">
-        <v>1.323512687673012</v>
+        <v>1.323512687638479</v>
       </c>
       <c r="G71">
-        <v>1.199147355714972</v>
+        <v>1.199147356167107</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2036,22 +2036,22 @@
         <v>1.888604828</v>
       </c>
       <c r="B72">
-        <v>1.109722947153161</v>
+        <v>1.109722947150441</v>
       </c>
       <c r="C72">
-        <v>1.250675559237619</v>
+        <v>1.250675559237949</v>
       </c>
       <c r="D72">
-        <v>1.247042383108294</v>
+        <v>1.247042383107341</v>
       </c>
       <c r="E72">
-        <v>1.247042382969516</v>
+        <v>1.247042383017506</v>
       </c>
       <c r="F72">
-        <v>1.245433250251409</v>
+        <v>1.245433250215271</v>
       </c>
       <c r="G72">
-        <v>1.137918941916656</v>
+        <v>1.13791894232807</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2059,22 +2059,22 @@
         <v>2.04003079</v>
       </c>
       <c r="B73">
-        <v>1.178125551372967</v>
+        <v>1.178125551371506</v>
       </c>
       <c r="C73">
-        <v>1.303398665180051</v>
+        <v>1.303398665180184</v>
       </c>
       <c r="D73">
-        <v>1.301991653897782</v>
+        <v>1.301991653897429</v>
       </c>
       <c r="E73">
-        <v>1.301991653846342</v>
+        <v>1.30199165386413</v>
       </c>
       <c r="F73">
-        <v>1.301429882251381</v>
+        <v>1.301429882238112</v>
       </c>
       <c r="G73">
-        <v>1.188648155892165</v>
+        <v>1.188648156243201</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2082,22 +2082,22 @@
         <v>2.000153766</v>
       </c>
       <c r="B74">
-        <v>1.166744489817456</v>
+        <v>1.166744489815899</v>
       </c>
       <c r="C74">
-        <v>1.283568861984592</v>
+        <v>1.283568861984743</v>
       </c>
       <c r="D74">
-        <v>1.281933598227793</v>
+        <v>1.281933598227382</v>
       </c>
       <c r="E74">
-        <v>1.281933598167963</v>
+        <v>1.281933598188652</v>
       </c>
       <c r="F74">
-        <v>1.281267877963785</v>
+        <v>1.281267877948308</v>
       </c>
       <c r="G74">
-        <v>1.179610302259144</v>
+        <v>1.179610302587054</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2105,22 +2105,22 @@
         <v>0.864914137</v>
       </c>
       <c r="B75">
-        <v>0.3653292858106761</v>
+        <v>0.3653292858066981</v>
       </c>
       <c r="C75">
-        <v>0.4172702544892776</v>
+        <v>0.4172702544897503</v>
       </c>
       <c r="D75">
-        <v>0.4118622053765911</v>
+        <v>0.4118622053751659</v>
       </c>
       <c r="E75">
-        <v>0.4118622051691537</v>
+        <v>0.411862205240886</v>
       </c>
       <c r="F75">
-        <v>0.4093975246912007</v>
+        <v>0.4093975246369648</v>
       </c>
       <c r="G75">
-        <v>0.3871719464840093</v>
+        <v>0.3871719467219034</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2128,22 +2128,22 @@
         <v>0.717927851</v>
       </c>
       <c r="B76">
-        <v>0.1971767841100341</v>
+        <v>0.1971767841062899</v>
       </c>
       <c r="C76">
-        <v>0.2315927874104724</v>
+        <v>0.2315927874110991</v>
       </c>
       <c r="D76">
-        <v>0.2243415774454933</v>
+        <v>0.2243415774435821</v>
       </c>
       <c r="E76">
-        <v>0.2243415771673124</v>
+        <v>0.2243415772635079</v>
       </c>
       <c r="F76">
-        <v>0.2210154718398689</v>
+        <v>0.22101547176706</v>
       </c>
       <c r="G76">
-        <v>0.2191204464490504</v>
+        <v>0.2191204466921818</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2151,22 +2151,22 @@
         <v>0.407859612</v>
       </c>
       <c r="B77">
-        <v>-0.08917890242926108</v>
+        <v>-0.08917890243370125</v>
       </c>
       <c r="C77">
-        <v>-0.05711784084496968</v>
+        <v>-0.05711784084400279</v>
       </c>
       <c r="D77">
-        <v>-0.06780902679103928</v>
+        <v>-0.06780902679399564</v>
       </c>
       <c r="E77">
-        <v>-0.06780902722130935</v>
+        <v>-0.06780902707252126</v>
       </c>
       <c r="F77">
-        <v>-0.0729831183551705</v>
+        <v>-0.07298311846789401</v>
       </c>
       <c r="G77">
-        <v>-0.06972166573015788</v>
+        <v>-0.06972166537065182</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2174,22 +2174,22 @@
         <v>0.9410866919999999</v>
       </c>
       <c r="B78">
-        <v>0.460225944484707</v>
+        <v>0.460225944481612</v>
       </c>
       <c r="C78">
-        <v>0.5248676749300125</v>
+        <v>0.5248676749305324</v>
       </c>
       <c r="D78">
-        <v>0.518810626314901</v>
+        <v>0.5188106263133286</v>
       </c>
       <c r="E78">
-        <v>0.518810626086027</v>
+        <v>0.5188106261651719</v>
       </c>
       <c r="F78">
-        <v>0.516089841684873</v>
+        <v>0.5160898416250271</v>
       </c>
       <c r="G78">
-        <v>0.5051884053648906</v>
+        <v>0.5051884055902298</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2197,22 +2197,22 @@
         <v>1.134364172</v>
       </c>
       <c r="B79">
-        <v>0.6978335353567486</v>
+        <v>0.6978335353535283</v>
       </c>
       <c r="C79">
-        <v>0.776210677234058</v>
+        <v>0.7762106772344529</v>
       </c>
       <c r="D79">
-        <v>0.7716717008600243</v>
+        <v>0.7716717008588493</v>
       </c>
       <c r="E79">
-        <v>0.7716717006889766</v>
+        <v>0.7716717007481253</v>
       </c>
       <c r="F79">
-        <v>0.7696575588391994</v>
+        <v>0.7696575587945443</v>
       </c>
       <c r="G79">
-        <v>0.7335767797370003</v>
+        <v>0.7335767799813825</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2220,22 +2220,22 @@
         <v>1.021170297</v>
       </c>
       <c r="B80">
-        <v>0.6011294342096358</v>
+        <v>0.6011294342057483</v>
       </c>
       <c r="C80">
-        <v>0.6850506257081632</v>
+        <v>0.6850506257087273</v>
       </c>
       <c r="D80">
-        <v>0.6785806787592983</v>
+        <v>0.6785806787576024</v>
       </c>
       <c r="E80">
-        <v>0.6785806785124632</v>
+        <v>0.6785806785978191</v>
       </c>
       <c r="F80">
-        <v>0.6756539329808915</v>
+        <v>0.6756539329163769</v>
       </c>
       <c r="G80">
-        <v>0.6437881634367744</v>
+        <v>0.643788163734563</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2243,22 +2243,22 @@
         <v>0.744577103</v>
       </c>
       <c r="B81">
-        <v>0.2644167980019726</v>
+        <v>0.2644167979979002</v>
       </c>
       <c r="C81">
-        <v>0.2874606426052396</v>
+        <v>0.2874606426060285</v>
       </c>
       <c r="D81">
-        <v>0.2783493111803342</v>
+        <v>0.27834931117795</v>
       </c>
       <c r="E81">
-        <v>0.2783493108333051</v>
+        <v>0.2783493109533084</v>
       </c>
       <c r="F81">
-        <v>0.2742232664442844</v>
+        <v>0.274223266353541</v>
       </c>
       <c r="G81">
-        <v>0.2895246819001619</v>
+        <v>0.2895246821550105</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2266,22 +2266,22 @@
         <v>0.739134427</v>
       </c>
       <c r="B82">
-        <v>0.3576743193705627</v>
+        <v>0.3576743193687332</v>
       </c>
       <c r="C82">
-        <v>0.4015719806436865</v>
+        <v>0.4015719806441793</v>
       </c>
       <c r="D82">
-        <v>0.3956639323304379</v>
+        <v>0.3956639323289707</v>
       </c>
       <c r="E82">
-        <v>0.3956639321168576</v>
+        <v>0.3956639321907141</v>
       </c>
       <c r="F82">
-        <v>0.3931582078356353</v>
+        <v>0.3931582077799103</v>
       </c>
       <c r="G82">
-        <v>0.424845171444013</v>
+        <v>0.4248451715397248</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2289,22 +2289,22 @@
         <v>0.226931775</v>
       </c>
       <c r="B83">
-        <v>-0.01029987956796555</v>
+        <v>-0.01029987957034174</v>
       </c>
       <c r="C83">
-        <v>-0.03223321751587066</v>
+        <v>-0.03223321751517418</v>
       </c>
       <c r="D83">
-        <v>-0.03960825910524039</v>
+        <v>-0.03960825910728287</v>
       </c>
       <c r="E83">
-        <v>-0.03960825940254436</v>
+        <v>-0.03960825929973607</v>
       </c>
       <c r="F83">
-        <v>-0.04310191533950708</v>
+        <v>-0.04310191541709707</v>
       </c>
       <c r="G83">
-        <v>0.02238610507271545</v>
+        <v>0.02238610514769158</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2312,22 +2312,22 @@
         <v>0.153490455</v>
       </c>
       <c r="B84">
-        <v>-0.1232038920638222</v>
+        <v>-0.123203892066692</v>
       </c>
       <c r="C84">
-        <v>-0.1469526735164065</v>
+        <v>-0.146952673515572</v>
       </c>
       <c r="D84">
-        <v>-0.1560892129729018</v>
+        <v>-0.1560892129753816</v>
       </c>
       <c r="E84">
-        <v>-0.1560892133338433</v>
+        <v>-0.156089213209029</v>
       </c>
       <c r="F84">
-        <v>-0.1603549136305179</v>
+        <v>-0.1603549137248048</v>
       </c>
       <c r="G84">
-        <v>-0.09205911584310571</v>
+        <v>-0.09205911572122323</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,22 +2335,22 @@
         <v>-0.030111902</v>
       </c>
       <c r="B85">
-        <v>-0.1293191483372918</v>
+        <v>-0.1293191483417646</v>
       </c>
       <c r="C85">
-        <v>-0.2108621532153946</v>
+        <v>-0.2108621532144228</v>
       </c>
       <c r="D85">
-        <v>-0.2216137827956151</v>
+        <v>-0.2216137827985139</v>
       </c>
       <c r="E85">
-        <v>-0.2216137832175377</v>
+        <v>-0.2216137830716361</v>
       </c>
       <c r="F85">
-        <v>-0.2266075291757845</v>
+        <v>-0.226607529286028</v>
       </c>
       <c r="G85">
-        <v>-0.147943529727798</v>
+        <v>-0.1479435295820461</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2358,22 +2358,22 @@
         <v>0.007322334</v>
       </c>
       <c r="B86">
-        <v>-0.3219736483573978</v>
+        <v>-0.3219736483606532</v>
       </c>
       <c r="C86">
-        <v>-0.2944964774605086</v>
+        <v>-0.2944964774594132</v>
       </c>
       <c r="D86">
-        <v>-0.306736981816688</v>
+        <v>-0.3067369818199728</v>
       </c>
       <c r="E86">
-        <v>-0.3067369822947789</v>
+        <v>-0.3067369821294541</v>
       </c>
       <c r="F86">
-        <v>-0.3124099539563885</v>
+        <v>-0.3124099540813611</v>
       </c>
       <c r="G86">
-        <v>-0.2294686903271208</v>
+        <v>-0.2294686901449007</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2381,22 +2381,22 @@
         <v>-0.472334039</v>
       </c>
       <c r="B87">
-        <v>-0.55645663422162</v>
+        <v>-0.5564566342242193</v>
       </c>
       <c r="C87">
-        <v>-0.5906498018412367</v>
+        <v>-0.5906498018400227</v>
       </c>
       <c r="D87">
-        <v>-0.6042721379849942</v>
+        <v>-0.6042721379886344</v>
       </c>
       <c r="E87">
-        <v>-0.6042721385148088</v>
+        <v>-0.604272138331598</v>
       </c>
       <c r="F87">
-        <v>-0.6105561503563967</v>
+        <v>-0.6105561504948798</v>
       </c>
       <c r="G87">
-        <v>-0.5301091371146229</v>
+        <v>-0.5301091368814393</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2404,22 +2404,22 @@
         <v>-0.205993001</v>
       </c>
       <c r="B88">
-        <v>-0.372447475932814</v>
+        <v>-0.3724474759346174</v>
       </c>
       <c r="C88">
-        <v>-0.2999554593700666</v>
+        <v>-0.2999554593689773</v>
       </c>
       <c r="D88">
-        <v>-0.3119615503261966</v>
+        <v>-0.3119615503294276</v>
       </c>
       <c r="E88">
-        <v>-0.3119615507964804</v>
+        <v>-0.3119615506338553</v>
       </c>
       <c r="F88">
-        <v>-0.3175090620127159</v>
+        <v>-0.3175090621355275</v>
       </c>
       <c r="G88">
-        <v>-0.2179333512755455</v>
+        <v>-0.2179333511457502</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2427,22 +2427,22 @@
         <v>0.358585953</v>
       </c>
       <c r="B89">
-        <v>-0.114301247665753</v>
+        <v>-0.1143012476681977</v>
       </c>
       <c r="C89">
-        <v>-0.1218603339672731</v>
+        <v>-0.1218603339664684</v>
       </c>
       <c r="D89">
-        <v>-0.1302975178041496</v>
+        <v>-0.1302975178064788</v>
       </c>
       <c r="E89">
-        <v>-0.1302975181431947</v>
+        <v>-0.1302975180259522</v>
       </c>
       <c r="F89">
-        <v>-0.1342505013571875</v>
+        <v>-0.1342505014455568</v>
       </c>
       <c r="G89">
-        <v>-0.02760761138567401</v>
+        <v>-0.02760761138771327</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2450,22 +2450,22 @@
         <v>-0.193909793</v>
       </c>
       <c r="B90">
-        <v>-0.5910934882314272</v>
+        <v>-0.5910934882339803</v>
       </c>
       <c r="C90">
-        <v>-0.6299148990959148</v>
+        <v>-0.6299148990947199</v>
       </c>
       <c r="D90">
-        <v>-0.6431287281173546</v>
+        <v>-0.6431287281209059</v>
       </c>
       <c r="E90">
-        <v>-0.6431287286342661</v>
+        <v>-0.6431287284555172</v>
       </c>
       <c r="F90">
-        <v>-0.6492324903863261</v>
+        <v>-0.649232490521337</v>
       </c>
       <c r="G90">
-        <v>-0.5605179035710319</v>
+        <v>-0.5605179033717381</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2473,22 +2473,22 @@
         <v>-0.333806235</v>
       </c>
       <c r="B91">
-        <v>-0.7020019618082007</v>
+        <v>-0.7020019618103988</v>
       </c>
       <c r="C91">
-        <v>-0.7444582378620876</v>
+        <v>-0.7444582378607995</v>
       </c>
       <c r="D91">
-        <v>-0.7587691003895448</v>
+        <v>-0.7587691003933872</v>
       </c>
       <c r="E91">
-        <v>-0.7587691009487962</v>
+        <v>-0.758769100755406</v>
       </c>
       <c r="F91">
-        <v>-0.7653855106485244</v>
+        <v>-0.7653855107946405</v>
       </c>
       <c r="G91">
-        <v>-0.6789047322074614</v>
+        <v>-0.6789047319657819</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2496,22 +2496,22 @@
         <v>-0.152969901</v>
       </c>
       <c r="B92">
-        <v>-0.6194286271539742</v>
+        <v>-0.6194286271562888</v>
       </c>
       <c r="C92">
-        <v>-0.6679130755154495</v>
+        <v>-0.6679130755142025</v>
       </c>
       <c r="D92">
-        <v>-0.6816774112852548</v>
+        <v>-0.6816774112889623</v>
       </c>
       <c r="E92">
-        <v>-0.6816774118248595</v>
+        <v>-0.6816774116382632</v>
       </c>
       <c r="F92">
-        <v>-0.6880518389436858</v>
+        <v>-0.6880518390846337</v>
       </c>
       <c r="G92">
-        <v>-0.5886906540354987</v>
+        <v>-0.5886906538458425</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2519,22 +2519,22 @@
         <v>0.084887538</v>
       </c>
       <c r="B93">
-        <v>-0.3969643427999127</v>
+        <v>-0.3969643427998338</v>
       </c>
       <c r="C93">
-        <v>-0.269040591074922</v>
+        <v>-0.2690405910740145</v>
       </c>
       <c r="D93">
-        <v>-0.278696228236731</v>
+        <v>-0.278696228239388</v>
       </c>
       <c r="E93">
-        <v>-0.2786962286234635</v>
+        <v>-0.2786962284897306</v>
       </c>
       <c r="F93">
-        <v>-0.2832336993038217</v>
+        <v>-0.2832336994047246</v>
       </c>
       <c r="G93">
-        <v>-0.1705673621117475</v>
+        <v>-0.1705673620892598</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2542,22 +2542,22 @@
         <v>-0.477853004</v>
       </c>
       <c r="B94">
-        <v>-0.794297977892289</v>
+        <v>-0.7942979778945382</v>
       </c>
       <c r="C94">
-        <v>-0.8327225152867139</v>
+        <v>-0.8327225152853488</v>
       </c>
       <c r="D94">
-        <v>-0.8479808944023829</v>
+        <v>-0.8479808944064655</v>
       </c>
       <c r="E94">
-        <v>-0.84798089499659</v>
+        <v>-0.8479808947911122</v>
       </c>
       <c r="F94">
-        <v>-0.8550187080030975</v>
+        <v>-0.8550187081583752</v>
       </c>
       <c r="G94">
-        <v>-0.7768960413301824</v>
+        <v>-0.7768960410357622</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2565,22 +2565,22 @@
         <v>-0.196793988</v>
       </c>
       <c r="B95">
-        <v>-0.7435313428514359</v>
+        <v>-0.7435313428539334</v>
       </c>
       <c r="C95">
-        <v>-0.7811707505591414</v>
+        <v>-0.7811707505577974</v>
       </c>
       <c r="D95">
-        <v>-0.7961612946957789</v>
+        <v>-0.7961612946997894</v>
       </c>
       <c r="E95">
-        <v>-0.7961612952794759</v>
+        <v>-0.7961612950776323</v>
       </c>
       <c r="F95">
-        <v>-0.8030662445290923</v>
+        <v>-0.8030662446815926</v>
       </c>
       <c r="G95">
-        <v>-0.7203033410946388</v>
+        <v>-0.7203033408219499</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2588,22 +2588,22 @@
         <v>-0.035189774</v>
       </c>
       <c r="B96">
-        <v>-0.4335791271163115</v>
+        <v>-0.4335791271192193</v>
       </c>
       <c r="C96">
-        <v>-0.4808765686960388</v>
+        <v>-0.4808765686949416</v>
       </c>
       <c r="D96">
-        <v>-0.4929051143140168</v>
+        <v>-0.4929051143172605</v>
       </c>
       <c r="E96">
-        <v>-0.4929051147861498</v>
+        <v>-0.4929051146228852</v>
       </c>
       <c r="F96">
-        <v>-0.4984651396809848</v>
+        <v>-0.4984651398042451</v>
       </c>
       <c r="G96">
-        <v>-0.4006749620859835</v>
+        <v>-0.4006749619498467</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2611,22 +2611,22 @@
         <v>-0.119794953</v>
       </c>
       <c r="B97">
-        <v>-0.4042432537422159</v>
+        <v>-0.404243253745006</v>
       </c>
       <c r="C97">
-        <v>-0.4522201631072837</v>
+        <v>-0.452220163106223</v>
       </c>
       <c r="D97">
-        <v>-0.4638134423877371</v>
+        <v>-0.463813442390871</v>
       </c>
       <c r="E97">
-        <v>-0.463813442843888</v>
+        <v>-0.4638134426861502</v>
       </c>
       <c r="F97">
-        <v>-0.4691844651795339</v>
+        <v>-0.4691844652986189</v>
       </c>
       <c r="G97">
-        <v>-0.3709512299793872</v>
+        <v>-0.3709512298581063</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2634,22 +2634,22 @@
         <v>-0.137195461</v>
       </c>
       <c r="B98">
-        <v>-0.4243394773391134</v>
+        <v>-0.4243394773419532</v>
       </c>
       <c r="C98">
-        <v>-0.4722894283655797</v>
+        <v>-0.4722894283644932</v>
       </c>
       <c r="D98">
-        <v>-0.4841895206847672</v>
+        <v>-0.4841895206879798</v>
       </c>
       <c r="E98">
-        <v>-0.4841895211523687</v>
+        <v>-0.4841895209906713</v>
       </c>
       <c r="F98">
-        <v>-0.489696885667566</v>
+        <v>-0.4896968857896459</v>
       </c>
       <c r="G98">
-        <v>-0.3909946165670828</v>
+        <v>-0.3909946164372927</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2657,22 +2657,22 @@
         <v>-0.048780735</v>
       </c>
       <c r="B99">
-        <v>-0.3893109197620547</v>
+        <v>-0.3893109197620678</v>
       </c>
       <c r="C99">
-        <v>-0.2418741256098448</v>
+        <v>-0.2418741256089735</v>
       </c>
       <c r="D99">
-        <v>-0.2512151152023866</v>
+        <v>-0.2512151152049407</v>
       </c>
       <c r="E99">
-        <v>-0.2512151155741454</v>
+        <v>-0.2512151154455905</v>
       </c>
       <c r="F99">
-        <v>-0.2555775485444036</v>
+        <v>-0.2555775486414023</v>
       </c>
       <c r="G99">
-        <v>-0.1601068183802164</v>
+        <v>-0.1601068183235851</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2680,22 +2680,22 @@
         <v>-0.265775876</v>
       </c>
       <c r="B100">
-        <v>-0.3528589748799122</v>
+        <v>-0.3528589748830254</v>
       </c>
       <c r="C100">
-        <v>-0.4070518265243943</v>
+        <v>-0.407051826523356</v>
       </c>
       <c r="D100">
-        <v>-0.4184018864536713</v>
+        <v>-0.4184018864567367</v>
       </c>
       <c r="E100">
-        <v>-0.4184018868998547</v>
+        <v>-0.4184018867455636</v>
       </c>
       <c r="F100">
-        <v>-0.4236529300153679</v>
+        <v>-0.4236529301318411</v>
       </c>
       <c r="G100">
-        <v>-0.326839479067153</v>
+        <v>-0.3268394789505347</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2703,22 +2703,22 @@
         <v>-1.383090189</v>
       </c>
       <c r="B101">
-        <v>-1.242536675576901</v>
+        <v>-1.242536675578128</v>
       </c>
       <c r="C101">
-        <v>-1.287202246560522</v>
+        <v>-1.287202246558772</v>
       </c>
       <c r="D101">
-        <v>-1.306993341948571</v>
+        <v>-1.30699334195384</v>
       </c>
       <c r="E101">
-        <v>-1.306993342715391</v>
+        <v>-1.306993342450223</v>
       </c>
       <c r="F101">
-        <v>-1.316104926721078</v>
+        <v>-1.31610492692157</v>
       </c>
       <c r="G101">
-        <v>-1.265675320812342</v>
+        <v>-1.26567532029461</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2726,22 +2726,22 @@
         <v>-1.491020681</v>
       </c>
       <c r="B102">
-        <v>-1.38589403263161</v>
+        <v>-1.385894032631905</v>
       </c>
       <c r="C102">
-        <v>-1.439594407152415</v>
+        <v>-1.439594407150559</v>
       </c>
       <c r="D102">
-        <v>-1.460650722094802</v>
+        <v>-1.460650722100409</v>
       </c>
       <c r="E102">
-        <v>-1.460650722910869</v>
+        <v>-1.460650722628671</v>
       </c>
       <c r="F102">
-        <v>-1.470366468224351</v>
+        <v>-1.470366468437789</v>
       </c>
       <c r="G102">
-        <v>-1.43271489034304</v>
+        <v>-1.432714889748148</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2749,22 +2749,22 @@
         <v>-1.726097843</v>
       </c>
       <c r="B103">
-        <v>-1.702353633172041</v>
+        <v>-1.702353633170277</v>
       </c>
       <c r="C103">
-        <v>-1.773416506250779</v>
+        <v>-1.773416506248661</v>
       </c>
       <c r="D103">
-        <v>-1.797530914175369</v>
+        <v>-1.797530914181787</v>
       </c>
       <c r="E103">
-        <v>-1.797530915109441</v>
+        <v>-1.797530914786437</v>
       </c>
       <c r="F103">
-        <v>-1.808670996632426</v>
+        <v>-1.808670996876799</v>
       </c>
       <c r="G103">
-        <v>-1.802777520579854</v>
+        <v>-1.802777519797235</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2772,22 +2772,22 @@
         <v>-1.861585716</v>
       </c>
       <c r="B104">
-        <v>-1.782043228804036</v>
+        <v>-1.782043228802146</v>
       </c>
       <c r="C104">
-        <v>-1.858079301224701</v>
+        <v>-1.858079301222482</v>
       </c>
       <c r="D104">
-        <v>-1.883358156827424</v>
+        <v>-1.883358156834155</v>
       </c>
       <c r="E104">
-        <v>-1.883358157807125</v>
+        <v>-1.883358157468342</v>
       </c>
       <c r="F104">
-        <v>-1.89504671736066</v>
+        <v>-1.895046717616985</v>
       </c>
       <c r="G104">
-        <v>-1.887738366605344</v>
+        <v>-1.887738365787519</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2795,22 +2795,22 @@
         <v>-1.803675785</v>
       </c>
       <c r="B105">
-        <v>-1.772379315369214</v>
+        <v>-1.772379315368531</v>
       </c>
       <c r="C105">
-        <v>-1.821530130505223</v>
+        <v>-1.821530130503094</v>
       </c>
       <c r="D105">
-        <v>-1.845828090838275</v>
+        <v>-1.845828090844742</v>
       </c>
       <c r="E105">
-        <v>-1.845828091779375</v>
+        <v>-1.845828091453941</v>
       </c>
       <c r="F105">
-        <v>-1.85706346202122</v>
+        <v>-1.857063462267473</v>
       </c>
       <c r="G105">
-        <v>-1.863828221307698</v>
+        <v>-1.863828220484408</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2818,22 +2818,22 @@
         <v>-1.009398128</v>
       </c>
       <c r="B106">
-        <v>-1.091207342283399</v>
+        <v>-1.091207342284895</v>
       </c>
       <c r="C106">
-        <v>-1.134646542999272</v>
+        <v>-1.134646542997663</v>
       </c>
       <c r="D106">
-        <v>-1.152805629878731</v>
+        <v>-1.152805629883574</v>
       </c>
       <c r="E106">
-        <v>-1.15280563058357</v>
+        <v>-1.152805630339836</v>
       </c>
       <c r="F106">
-        <v>-1.161180024554778</v>
+        <v>-1.161180024739062</v>
       </c>
       <c r="G106">
-        <v>-1.101643526330222</v>
+        <v>-1.101643525890307</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2841,22 +2841,22 @@
         <v>-0.412606248</v>
       </c>
       <c r="B107">
-        <v>-0.4472729498424606</v>
+        <v>-0.4472729498426251</v>
       </c>
       <c r="C107">
-        <v>-0.2953371698180752</v>
+        <v>-0.2953371698171287</v>
       </c>
       <c r="D107">
-        <v>-0.305530888636151</v>
+        <v>-0.3055308886389215</v>
       </c>
       <c r="E107">
-        <v>-0.3055308890394193</v>
+        <v>-0.3055308888999684</v>
       </c>
       <c r="F107">
-        <v>-0.3102564692663967</v>
+        <v>-0.3102564693715925</v>
       </c>
       <c r="G107">
-        <v>-0.2071176925805712</v>
+        <v>-0.2071176925180599</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2864,22 +2864,22 @@
         <v>-0.51999747</v>
       </c>
       <c r="B108">
-        <v>-0.4881779255067193</v>
+        <v>-0.4881779255095352</v>
       </c>
       <c r="C108">
-        <v>-0.5314003155900574</v>
+        <v>-0.5314003155889194</v>
       </c>
       <c r="D108">
-        <v>-0.5439225390319855</v>
+        <v>-0.5439225390353566</v>
       </c>
       <c r="E108">
-        <v>-0.5439225395226414</v>
+        <v>-0.5439225393529716</v>
       </c>
       <c r="F108">
-        <v>-0.5497062128531532</v>
+        <v>-0.5497062129812695</v>
       </c>
       <c r="G108">
-        <v>-0.4541339909512678</v>
+        <v>-0.454133990793211</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2887,22 +2887,22 @@
         <v>0.068281413</v>
       </c>
       <c r="B109">
-        <v>-0.3478539561517019</v>
+        <v>-0.3478539561546258</v>
       </c>
       <c r="C109">
-        <v>-0.4037352138574133</v>
+        <v>-0.4037352138563914</v>
       </c>
       <c r="D109">
-        <v>-0.4148547021055133</v>
+        <v>-0.414854702108526</v>
       </c>
       <c r="E109">
-        <v>-0.4148547025440283</v>
+        <v>-0.414854702392389</v>
       </c>
       <c r="F109">
-        <v>-0.4200127191832501</v>
+        <v>-0.4200127192977114</v>
       </c>
       <c r="G109">
-        <v>-0.3196533558055688</v>
+        <v>-0.3196533557051983</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2910,22 +2910,22 @@
         <v>0.724845088</v>
       </c>
       <c r="B110">
-        <v>0.4451728280582072</v>
+        <v>0.4451728280569931</v>
       </c>
       <c r="C110">
-        <v>0.4104444353819713</v>
+        <v>0.4104444353823931</v>
       </c>
       <c r="D110">
-        <v>0.4101247427076106</v>
+        <v>0.4101247427066094</v>
       </c>
       <c r="E110">
-        <v>0.4101247425618359</v>
+        <v>0.4101247426122452</v>
       </c>
       <c r="F110">
-        <v>0.4085029819894115</v>
+        <v>0.4085029819517018</v>
       </c>
       <c r="G110">
-        <v>0.5330296116351551</v>
+        <v>0.5330296114187707</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2933,22 +2933,22 @@
         <v>0.843675493</v>
       </c>
       <c r="B111">
-        <v>0.6322977376001411</v>
+        <v>0.6322977375995245</v>
       </c>
       <c r="C111">
-        <v>0.6044502596609014</v>
+        <v>0.6044502596610882</v>
       </c>
       <c r="D111">
-        <v>0.6000654977493117</v>
+        <v>0.6000654977487668</v>
       </c>
       <c r="E111">
-        <v>0.6000654976699407</v>
+        <v>0.6000654976973874</v>
       </c>
       <c r="F111">
-        <v>0.599238024139956</v>
+        <v>0.5992380241196275</v>
       </c>
       <c r="G111">
-        <v>0.7133350514163572</v>
+        <v>0.7133350511716161</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2956,22 +2956,22 @@
         <v>1.000687569</v>
       </c>
       <c r="B112">
-        <v>0.6980717280664748</v>
+        <v>0.698071728066054</v>
       </c>
       <c r="C112">
-        <v>0.6657298684326329</v>
+        <v>0.6657298684328016</v>
       </c>
       <c r="D112">
-        <v>0.6619858551235258</v>
+        <v>0.66198585512306</v>
       </c>
       <c r="E112">
-        <v>0.6619858550556617</v>
+        <v>0.6619858550791292</v>
       </c>
       <c r="F112">
-        <v>0.661304411743832</v>
+        <v>0.6613044117265461</v>
       </c>
       <c r="G112">
-        <v>0.7834464193581931</v>
+        <v>0.7834464190815663</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2979,22 +2979,22 @@
         <v>1.420234526</v>
       </c>
       <c r="B113">
-        <v>1.196360507995865</v>
+        <v>1.196360507998222</v>
       </c>
       <c r="C113">
-        <v>1.1389277344817</v>
+        <v>1.138927734481486</v>
       </c>
       <c r="D113">
-        <v>1.141190644104934</v>
+        <v>1.141190644105715</v>
       </c>
       <c r="E113">
-        <v>1.141190644218482</v>
+        <v>1.141190644179217</v>
       </c>
       <c r="F113">
-        <v>1.142699567337095</v>
+        <v>1.142699567367369</v>
       </c>
       <c r="G113">
-        <v>1.263595955703007</v>
+        <v>1.263595955274349</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3002,22 +3002,22 @@
         <v>1.57372364</v>
       </c>
       <c r="B114">
-        <v>1.517765791321785</v>
+        <v>1.517765791326277</v>
       </c>
       <c r="C114">
-        <v>1.44177942664569</v>
+        <v>1.441779426645229</v>
       </c>
       <c r="D114">
-        <v>1.447120001290745</v>
+        <v>1.447120001292309</v>
       </c>
       <c r="E114">
-        <v>1.447120001518343</v>
+        <v>1.447120001439639</v>
       </c>
       <c r="F114">
-        <v>1.45001468723224</v>
+        <v>1.450014687292445</v>
       </c>
       <c r="G114">
-        <v>1.571227950818098</v>
+        <v>1.57122795029076</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3025,22 +3025,22 @@
         <v>1.732814752</v>
       </c>
       <c r="B115">
-        <v>2.026779887969225</v>
+        <v>2.026779887978098</v>
       </c>
       <c r="C115">
-        <v>1.913636089135188</v>
+        <v>1.913636089134408</v>
       </c>
       <c r="D115">
-        <v>1.922851645187803</v>
+        <v>1.922851645190362</v>
       </c>
       <c r="E115">
-        <v>1.92285164556019</v>
+        <v>1.922851645431418</v>
       </c>
       <c r="F115">
-        <v>1.927494528929293</v>
+        <v>1.927494529027456</v>
       </c>
       <c r="G115">
-        <v>2.042105112367057</v>
+        <v>2.042105111733679</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3048,22 +3048,22 @@
         <v>2.09753689</v>
       </c>
       <c r="B116">
-        <v>2.359231774290206</v>
+        <v>2.359231774301917</v>
       </c>
       <c r="C116">
-        <v>2.220870322835811</v>
+        <v>2.220870322834775</v>
       </c>
       <c r="D116">
-        <v>2.23314929138289</v>
+        <v>2.233149291386256</v>
       </c>
       <c r="E116">
-        <v>2.233149291872677</v>
+        <v>2.233149291703308</v>
       </c>
       <c r="F116">
-        <v>2.239222084895883</v>
+        <v>2.239222085024869</v>
       </c>
       <c r="G116">
-        <v>2.349984414049536</v>
+        <v>2.349984413325926</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3071,22 +3071,22 @@
         <v>1.876536832</v>
       </c>
       <c r="B117">
-        <v>2.235761871228744</v>
+        <v>2.235761871238643</v>
       </c>
       <c r="C117">
-        <v>2.121773585436206</v>
+        <v>2.1217735854353</v>
       </c>
       <c r="D117">
-        <v>2.132541607054452</v>
+        <v>2.132541607057412</v>
       </c>
       <c r="E117">
-        <v>2.13254160748509</v>
+        <v>2.132541607336175</v>
       </c>
       <c r="F117">
-        <v>2.137895058881636</v>
+        <v>2.137895058995097</v>
       </c>
       <c r="G117">
-        <v>2.239516781032853</v>
+        <v>2.239516780384915</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3094,22 +3094,22 @@
         <v>1.903128061</v>
       </c>
       <c r="B118">
-        <v>2.010992834634335</v>
+        <v>2.010992834642479</v>
       </c>
       <c r="C118">
-        <v>1.910998802277457</v>
+        <v>1.910998802276656</v>
       </c>
       <c r="D118">
-        <v>1.920496100950273</v>
+        <v>1.920496100952908</v>
       </c>
       <c r="E118">
-        <v>1.92049610133354</v>
+        <v>1.920496101201006</v>
       </c>
       <c r="F118">
-        <v>1.925279924562582</v>
+        <v>1.925279924663632</v>
       </c>
       <c r="G118">
-        <v>2.031873279864045</v>
+        <v>2.031873279243104</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3117,22 +3117,22 @@
         <v>2.565704836</v>
       </c>
       <c r="B119">
-        <v>2.483624172215492</v>
+        <v>2.483624172228174</v>
       </c>
       <c r="C119">
-        <v>2.347867078191882</v>
+        <v>2.347867078190701</v>
       </c>
       <c r="D119">
-        <v>2.361860041622732</v>
+        <v>2.361860041626549</v>
       </c>
       <c r="E119">
-        <v>2.361860042178189</v>
+        <v>2.36186004198611</v>
       </c>
       <c r="F119">
-        <v>2.368725058201684</v>
+        <v>2.368725058347885</v>
       </c>
       <c r="G119">
-        <v>2.453607425109779</v>
+        <v>2.453607424400509</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3140,22 +3140,22 @@
         <v>2.524999221</v>
       </c>
       <c r="B120">
-        <v>2.398929262624444</v>
+        <v>2.398929262636702</v>
       </c>
       <c r="C120">
-        <v>2.264791083082316</v>
+        <v>2.264791083081229</v>
       </c>
       <c r="D120">
-        <v>2.277655983956984</v>
+        <v>2.277655983960501</v>
       </c>
       <c r="E120">
-        <v>2.277655984468847</v>
+        <v>2.277655984291843</v>
       </c>
       <c r="F120">
-        <v>2.283986617620644</v>
+        <v>2.283986617755386</v>
       </c>
       <c r="G120">
-        <v>2.373190450180068</v>
+        <v>2.373190449496452</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3163,22 +3163,22 @@
         <v>2.253887829</v>
       </c>
       <c r="B121">
-        <v>2.477716824223057</v>
+        <v>2.477716824236363</v>
       </c>
       <c r="C121">
-        <v>2.337597863374637</v>
+        <v>2.337597863373499</v>
       </c>
       <c r="D121">
-        <v>2.35108118375644</v>
+        <v>2.35108118376012</v>
       </c>
       <c r="E121">
-        <v>2.351081184291793</v>
+        <v>2.351081184106667</v>
       </c>
       <c r="F121">
-        <v>2.357695324173552</v>
+        <v>2.357695324314451</v>
       </c>
       <c r="G121">
-        <v>2.439612074485532</v>
+        <v>2.43961207380167</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3186,22 +3186,22 @@
         <v>1.717105097</v>
       </c>
       <c r="B122">
-        <v>1.884450814534099</v>
+        <v>1.884450814541805</v>
       </c>
       <c r="C122">
-        <v>1.783384754938588</v>
+        <v>1.783384754937871</v>
       </c>
       <c r="D122">
-        <v>1.791811063720846</v>
+        <v>1.791811063723202</v>
       </c>
       <c r="E122">
-        <v>1.791811064063667</v>
+        <v>1.791811063945119</v>
       </c>
       <c r="F122">
-        <v>1.796092103243859</v>
+        <v>1.796092103334253</v>
       </c>
       <c r="G122">
-        <v>1.905781308706954</v>
+        <v>1.905781308112387</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3209,22 +3209,22 @@
         <v>1.56643693</v>
       </c>
       <c r="B123">
-        <v>1.62846234829014</v>
+        <v>1.628462348295308</v>
       </c>
       <c r="C123">
-        <v>1.559200668299114</v>
+        <v>1.55920066829861</v>
       </c>
       <c r="D123">
-        <v>1.565126407386367</v>
+        <v>1.56512640738806</v>
       </c>
       <c r="E123">
-        <v>1.565126407632648</v>
+        <v>1.565126407547484</v>
       </c>
       <c r="F123">
-        <v>1.568238474401634</v>
+        <v>1.568238474466707</v>
       </c>
       <c r="G123">
-        <v>1.668539222810709</v>
+        <v>1.668539222324505</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3232,22 +3232,22 @@
         <v>1.670021813</v>
       </c>
       <c r="B124">
-        <v>1.702441986459378</v>
+        <v>1.702441986465196</v>
       </c>
       <c r="C124">
-        <v>1.622086007304328</v>
+        <v>1.622086007303784</v>
       </c>
       <c r="D124">
-        <v>1.628487953846369</v>
+        <v>1.628487953848189</v>
       </c>
       <c r="E124">
-        <v>1.62848795411113</v>
+        <v>1.628487954019576</v>
       </c>
       <c r="F124">
-        <v>1.631826588631965</v>
+        <v>1.631826588701895</v>
       </c>
       <c r="G124">
-        <v>1.741606886116358</v>
+        <v>1.741606885588422</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3255,22 +3255,22 @@
         <v>1.289704565</v>
       </c>
       <c r="B125">
-        <v>1.249704866593394</v>
+        <v>1.249704866596093</v>
       </c>
       <c r="C125">
-        <v>1.189432442931265</v>
+        <v>1.189432442931012</v>
       </c>
       <c r="D125">
-        <v>1.192195887603885</v>
+        <v>1.19219588760479</v>
       </c>
       <c r="E125">
-        <v>1.192195887735412</v>
+        <v>1.19219588768993</v>
       </c>
       <c r="F125">
-        <v>1.193921856231345</v>
+        <v>1.193921856266332</v>
       </c>
       <c r="G125">
-        <v>1.314279247609532</v>
+        <v>1.31427924716694</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3278,22 +3278,22 @@
         <v>1.598926475</v>
       </c>
       <c r="B126">
-        <v>1.659937135001106</v>
+        <v>1.659937135006662</v>
       </c>
       <c r="C126">
-        <v>1.575936361071763</v>
+        <v>1.575936361071197</v>
       </c>
       <c r="D126">
-        <v>1.582549870337205</v>
+        <v>1.582549870339095</v>
       </c>
       <c r="E126">
-        <v>1.582549870612226</v>
+        <v>1.582549870517123</v>
       </c>
       <c r="F126">
-        <v>1.586018099016447</v>
+        <v>1.586018099089088</v>
       </c>
       <c r="G126">
-        <v>1.703824255628408</v>
+        <v>1.703824255069722</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3301,22 +3301,22 @@
         <v>1.548087648</v>
       </c>
       <c r="B127">
-        <v>1.345746132235155</v>
+        <v>1.345746132238603</v>
       </c>
       <c r="C127">
-        <v>1.271791646626427</v>
+        <v>1.271791646626132</v>
       </c>
       <c r="D127">
-        <v>1.275074171177823</v>
+        <v>1.275074171178862</v>
       </c>
       <c r="E127">
-        <v>1.27507417132896</v>
+        <v>1.275074171276696</v>
       </c>
       <c r="F127">
-        <v>1.277041535113968</v>
+        <v>1.277041535154113</v>
       </c>
       <c r="G127">
-        <v>1.41197282521982</v>
+        <v>1.41197282472062</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3324,22 +3324,22 @@
         <v>1.53687982</v>
       </c>
       <c r="B128">
-        <v>1.494388715850538</v>
+        <v>1.494388715854931</v>
       </c>
       <c r="C128">
-        <v>1.408436185899211</v>
+        <v>1.408436185898802</v>
       </c>
       <c r="D128">
-        <v>1.413127676932502</v>
+        <v>1.413127676933909</v>
       </c>
       <c r="E128">
-        <v>1.413127677137033</v>
+        <v>1.413127677066306</v>
       </c>
       <c r="F128">
-        <v>1.415749259032461</v>
+        <v>1.415749259086638</v>
       </c>
       <c r="G128">
-        <v>1.557772472828294</v>
+        <v>1.557772472263892</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3347,22 +3347,22 @@
         <v>1.443008135</v>
       </c>
       <c r="B129">
-        <v>1.331010760927214</v>
+        <v>1.331010760930374</v>
       </c>
       <c r="C129">
-        <v>1.258002881543898</v>
+        <v>1.258002881543631</v>
       </c>
       <c r="D129">
-        <v>1.260969919057244</v>
+        <v>1.2609699190582</v>
       </c>
       <c r="E129">
-        <v>1.260969919196353</v>
+        <v>1.260969919148249</v>
       </c>
       <c r="F129">
-        <v>1.262793928794966</v>
+        <v>1.262793928831964</v>
       </c>
       <c r="G129">
-        <v>1.399391467250994</v>
+        <v>1.399391466757532</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3370,22 +3370,22 @@
         <v>1.453311511</v>
       </c>
       <c r="B130">
-        <v>1.715167655951217</v>
+        <v>1.715167655956931</v>
       </c>
       <c r="C130">
-        <v>1.632542133441858</v>
+        <v>1.63254213344127</v>
       </c>
       <c r="D130">
-        <v>1.63945983248215</v>
+        <v>1.639459832484115</v>
       </c>
       <c r="E130">
-        <v>1.639459832768037</v>
+        <v>1.639459832669177</v>
       </c>
       <c r="F130">
-        <v>1.643065114549399</v>
+        <v>1.64306511462491</v>
       </c>
       <c r="G130">
-        <v>1.759588300251628</v>
+        <v>1.759588299687065</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3393,22 +3393,22 @@
         <v>0.170289762</v>
       </c>
       <c r="B131">
-        <v>0.7290943053177878</v>
+        <v>0.7290943053175549</v>
       </c>
       <c r="C131">
-        <v>0.695224003988161</v>
+        <v>0.6952240039882664</v>
       </c>
       <c r="D131">
-        <v>0.6917175973621722</v>
+        <v>0.691717597361892</v>
       </c>
       <c r="E131">
-        <v>0.6917175973213057</v>
+        <v>0.6917175973354375</v>
       </c>
       <c r="F131">
-        <v>0.6913714699813791</v>
+        <v>0.6913714699712052</v>
       </c>
       <c r="G131">
-        <v>0.8145337247085301</v>
+        <v>0.8145337244058817</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3416,22 +3416,22 @@
         <v>0.108929054</v>
       </c>
       <c r="B132">
-        <v>0.6707893853948614</v>
+        <v>0.6707893853944404</v>
       </c>
       <c r="C132">
-        <v>0.6368086797297557</v>
+        <v>0.6368086797299086</v>
       </c>
       <c r="D132">
-        <v>0.6318909723391281</v>
+        <v>0.6318909723386622</v>
       </c>
       <c r="E132">
-        <v>0.6318909722712598</v>
+        <v>0.6318909722947289</v>
       </c>
       <c r="F132">
-        <v>0.6312139967383985</v>
+        <v>0.6312139967211281</v>
       </c>
       <c r="G132">
-        <v>0.7573792330803587</v>
+        <v>0.7573792327927085</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3439,22 +3439,22 @@
         <v>0.556826058</v>
       </c>
       <c r="B133">
-        <v>0.7145492094540145</v>
+        <v>0.7145492094538416</v>
       </c>
       <c r="C133">
-        <v>0.6767315167193376</v>
+        <v>0.6767315167194654</v>
       </c>
       <c r="D133">
-        <v>0.6732122986791963</v>
+        <v>0.6732122986788494</v>
       </c>
       <c r="E133">
-        <v>0.6732122986286401</v>
+        <v>0.6732122986461226</v>
       </c>
       <c r="F133">
-        <v>0.6727418120186023</v>
+        <v>0.672741812005861</v>
       </c>
       <c r="G133">
-        <v>0.7996774654921067</v>
+        <v>0.7996774651875518</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3462,22 +3462,22 @@
         <v>0.756759764</v>
       </c>
       <c r="B134">
-        <v>0.9660493620663988</v>
+        <v>0.9660493620674636</v>
       </c>
       <c r="C134">
-        <v>0.9171471515016891</v>
+        <v>0.9171471515016463</v>
       </c>
       <c r="D134">
-        <v>0.9170675079222139</v>
+        <v>0.917067507922452</v>
       </c>
       <c r="E134">
-        <v>0.9170675079568061</v>
+        <v>0.917067507944844</v>
       </c>
       <c r="F134">
-        <v>0.9176243190623316</v>
+        <v>0.91762431907191</v>
       </c>
       <c r="G134">
-        <v>1.044794083289982</v>
+        <v>1.044794082911845</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3485,22 +3485,22 @@
         <v>0.307333133</v>
       </c>
       <c r="B135">
-        <v>0.45559734513636</v>
+        <v>0.4555973451351225</v>
       </c>
       <c r="C135">
-        <v>0.4207167926891779</v>
+        <v>0.4207167926896703</v>
       </c>
       <c r="D135">
-        <v>0.4266728837856714</v>
+        <v>0.4266728837847202</v>
       </c>
       <c r="E135">
-        <v>0.4266728836471703</v>
+        <v>0.4266728836950643</v>
       </c>
       <c r="F135">
-        <v>0.4251303499087062</v>
+        <v>0.4251303498728718</v>
       </c>
       <c r="G135">
-        <v>0.5376732797904413</v>
+        <v>0.5376732796006134</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3508,22 +3508,22 @@
         <v>0.419613927</v>
       </c>
       <c r="B136">
-        <v>0.6192570986728296</v>
+        <v>0.6192570986720879</v>
       </c>
       <c r="C136">
-        <v>0.590936953807926</v>
+        <v>0.5909369538081316</v>
       </c>
       <c r="D136">
-        <v>0.5849916438098332</v>
+        <v>0.5849916438091836</v>
       </c>
       <c r="E136">
-        <v>0.5849916437152514</v>
+        <v>0.5849916437479579</v>
       </c>
       <c r="F136">
-        <v>0.5839873873723904</v>
+        <v>0.5839873873480993</v>
       </c>
       <c r="G136">
-        <v>0.7056419521106138</v>
+        <v>0.7056419518582101</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3531,22 +3531,22 @@
         <v>0.918398419</v>
       </c>
       <c r="B137">
-        <v>1.141466570816785</v>
+        <v>1.141466570818801</v>
       </c>
       <c r="C137">
-        <v>1.086877954255422</v>
+        <v>1.086877954255248</v>
       </c>
       <c r="D137">
-        <v>1.088617969643879</v>
+        <v>1.088617969644533</v>
       </c>
       <c r="E137">
-        <v>1.088617969738883</v>
+        <v>1.088617969706031</v>
       </c>
       <c r="F137">
-        <v>1.089903024701818</v>
+        <v>1.08990302472723</v>
       </c>
       <c r="G137">
-        <v>1.211261842049256</v>
+        <v>1.211261841635225</v>
       </c>
     </row>
   </sheetData>

--- a/table_best_models___spi-12__test.xlsx
+++ b/table_best_models___spi-12__test.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Observed</t>
   </si>
   <si>
     <t>Lasso ($\beta = $0.0)</t>
+  </si>
+  <si>
+    <t>Lasso ($\beta = $0.009366697093923015)</t>
+  </si>
+  <si>
+    <t>Lasso ($\beta = $0.011488797836428866)</t>
   </si>
   <si>
     <t>Lasso ($\beta = $0.1)</t>
@@ -32,6 +38,9 @@
   </si>
   <si>
     <t>Lasso ($\beta = $1.5)</t>
+  </si>
+  <si>
+    <t>Lasso ($\beta = $10.0)</t>
   </si>
   <si>
     <t>Lasso ($\beta = $2.0)</t>
@@ -392,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,3132 +429,4365 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0.278762905</v>
       </c>
       <c r="B2">
-        <v>0.1725651437565382</v>
+        <v>0.1931809676459194</v>
       </c>
       <c r="C2">
+        <v>0.2437278418706124</v>
+      </c>
+      <c r="D2">
+        <v>0.2003272929250919</v>
+      </c>
+      <c r="E2">
         <v>0.2117673681432758</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.2090303033156185</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.2090303032435173</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.2076944972878272</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>0.2016716419184926</v>
+      </c>
+      <c r="J2">
         <v>0.1960010805634689</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0.444861224</v>
       </c>
       <c r="B3">
-        <v>0.37111679156287</v>
+        <v>0.3996566649694033</v>
       </c>
       <c r="C3">
+        <v>0.4734188017611064</v>
+      </c>
+      <c r="D3">
+        <v>0.4312637349665045</v>
+      </c>
+      <c r="E3">
         <v>0.4101469943391393</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.4094550742658738</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.4094550742502849</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.4091772687520481</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0.4077258261446736</v>
+      </c>
+      <c r="J3">
         <v>0.3937363364917467</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0.626507386</v>
       </c>
       <c r="B4">
-        <v>0.4277846168548822</v>
+        <v>0.4602448435348362</v>
       </c>
       <c r="C4">
+        <v>0.5309836872318973</v>
+      </c>
+      <c r="D4">
+        <v>0.4957884531277363</v>
+      </c>
+      <c r="E4">
         <v>0.4723926721574218</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.4698143443307725</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.4698143442680547</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.468675433245763</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.4645121371287217</v>
+      </c>
+      <c r="J4">
         <v>0.4446142207910933</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0.692550886</v>
       </c>
       <c r="B5">
-        <v>0.4877077986414386</v>
+        <v>0.5321724539119475</v>
       </c>
       <c r="C5">
+        <v>0.5993879517154892</v>
+      </c>
+      <c r="D5">
+        <v>0.5734135151219659</v>
+      </c>
+      <c r="E5">
         <v>0.5440500199258387</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.5420201657356638</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.5420201656870236</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.5411389870029736</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.5379810447102291</v>
+      </c>
+      <c r="J5">
         <v>0.5083127558106677</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0.842026137</v>
       </c>
       <c r="B6">
-        <v>0.7007183798829671</v>
+        <v>0.7579028661353813</v>
       </c>
       <c r="C6">
+        <v>0.7835224183452451</v>
+      </c>
+      <c r="D6">
+        <v>0.7989399705719293</v>
+      </c>
+      <c r="E6">
         <v>0.7640120874605274</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.7626879114098509</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.7626879113805967</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.7621807637359459</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0.7616392529224213</v>
+      </c>
+      <c r="J6">
         <v>0.7260656650557576</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1.197703675</v>
       </c>
       <c r="B7">
-        <v>1.206953671596364</v>
+        <v>1.253562338231302</v>
       </c>
       <c r="C7">
+        <v>1.234131832096906</v>
+      </c>
+      <c r="D7">
+        <v>1.226664621268254</v>
+      </c>
+      <c r="E7">
         <v>1.24408599412522</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1.249672114693297</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.249672114839401</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.252439559689786</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>1.265054918216873</v>
+      </c>
+      <c r="J7">
         <v>1.201900387313125</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0.960333763</v>
       </c>
       <c r="B8">
-        <v>0.8449005270138352</v>
+        <v>0.8660741495955956</v>
       </c>
       <c r="C8">
+        <v>0.9275791535876242</v>
+      </c>
+      <c r="D8">
+        <v>0.9075781537181836</v>
+      </c>
+      <c r="E8">
         <v>0.8613499423675004</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.862749938417761</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.8627499384608539</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.8635609214743413</v>
       </c>
-      <c r="G8">
+      <c r="I8">
+        <v>0.8719703425451769</v>
+      </c>
+      <c r="J8">
         <v>0.8574873584602267</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>0.436720642</v>
       </c>
       <c r="B9">
-        <v>0.2079732939237854</v>
+        <v>0.1818605364817396</v>
       </c>
       <c r="C9">
+        <v>0.1656585306052125</v>
+      </c>
+      <c r="D9">
+        <v>0.1322283994896409</v>
+      </c>
+      <c r="E9">
         <v>0.1992782090366281</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.1942517044645079</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.1942517043536567</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.1921592326683494</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.1792704900297377</v>
+      </c>
+      <c r="J9">
         <v>0.2394198776156344</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>-0.228589736</v>
       </c>
       <c r="B10">
-        <v>0.1154630617482918</v>
+        <v>0.07977418509674408</v>
       </c>
       <c r="C10">
+        <v>0.1001186288750777</v>
+      </c>
+      <c r="D10">
+        <v>0.07213131119531856</v>
+      </c>
+      <c r="E10">
         <v>0.1068857017177409</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.1012430298614155</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.1012430297508474</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.09919773186068913</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.08896978492670514</v>
+      </c>
+      <c r="J10">
         <v>0.1472988444021374</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>-0.296024885</v>
       </c>
       <c r="B11">
-        <v>-0.2357439853633513</v>
+        <v>-0.2970238499474278</v>
       </c>
       <c r="C11">
+        <v>-0.2844307191477913</v>
+      </c>
+      <c r="D11">
+        <v>-0.3207737257506679</v>
+      </c>
+      <c r="E11">
         <v>-0.2599530305586065</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>-0.268136583535759</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>-0.2681365837429107</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>-0.2719391510399247</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>-0.2865132637638479</v>
+      </c>
+      <c r="J11">
         <v>-0.2285593242055106</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>-0.420720253</v>
       </c>
       <c r="B12">
-        <v>-0.4774586054030582</v>
+        <v>-0.507806226476132</v>
       </c>
       <c r="C12">
+        <v>-0.574470667784615</v>
+      </c>
+      <c r="D12">
+        <v>-0.6141450944125599</v>
+      </c>
+      <c r="E12">
         <v>-0.492850194170776</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>-0.503723369296619</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>-0.503723369569553</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>-0.5087767609922829</v>
       </c>
-      <c r="G12">
+      <c r="I12">
+        <v>-0.5280672851795265</v>
+      </c>
+      <c r="J12">
         <v>-0.463507744283926</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>-0.425623542</v>
       </c>
       <c r="B13">
-        <v>-0.5211172803315233</v>
+        <v>-0.5515046536471334</v>
       </c>
       <c r="C13">
+        <v>-0.6215158055662049</v>
+      </c>
+      <c r="D13">
+        <v>-0.6601121511127024</v>
+      </c>
+      <c r="E13">
         <v>-0.5368830389823613</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>-0.5479740376941034</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>-0.5479740379718993</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>-0.5531137386923156</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <v>-0.5726009504478272</v>
+      </c>
+      <c r="J13">
         <v>-0.5099392174522005</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>0.026699591</v>
       </c>
       <c r="B14">
-        <v>0.01949325132032503</v>
+        <v>0.02404072806993659</v>
       </c>
       <c r="C14">
+        <v>0.01214718296763692</v>
+      </c>
+      <c r="D14">
+        <v>0.009743661902464756</v>
+      </c>
+      <c r="E14">
         <v>0.04191090660950259</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>0.03109701125156264</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.03109701103166029</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.02704094775975922</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <v>0.009879082076338305</v>
+      </c>
+      <c r="J14">
         <v>0.07768582274241967</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>0.13916043</v>
       </c>
       <c r="B15">
-        <v>0.1853636825151276</v>
+        <v>0.2057539375803512</v>
       </c>
       <c r="C15">
+        <v>0.2054718562785182</v>
+      </c>
+      <c r="D15">
+        <v>0.2175680395112788</v>
+      </c>
+      <c r="E15">
         <v>0.2207075016797391</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>0.2125002891056967</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.2125002889087946</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.2088761100427999</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <v>0.1845054153929438</v>
+      </c>
+      <c r="J15">
         <v>0.2392640842175906</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>-0.207233368</v>
       </c>
       <c r="B16">
-        <v>-0.09128611315440119</v>
+        <v>-0.0555252746796395</v>
       </c>
       <c r="C16">
+        <v>-0.1050290326566592</v>
+      </c>
+      <c r="D16">
+        <v>-0.1123875174766599</v>
+      </c>
+      <c r="E16">
         <v>-0.04093240158050826</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>-0.05012254607199103</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>-0.05012254629788412</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>-0.05431649866516515</v>
       </c>
-      <c r="G16">
+      <c r="I16">
+        <v>-0.06850236060827487</v>
+      </c>
+      <c r="J16">
         <v>-0.03164982973730561</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>-0.369649639</v>
       </c>
       <c r="B17">
-        <v>-0.174803344613623</v>
+        <v>-0.1842593512688773</v>
       </c>
       <c r="C17">
+        <v>-0.2070663571209889</v>
+      </c>
+      <c r="D17">
+        <v>-0.2526650124605654</v>
+      </c>
+      <c r="E17">
         <v>-0.1693036377322212</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>-0.1782039535081279</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>-0.1782039537353596</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>-0.1824195483965617</v>
       </c>
-      <c r="G17">
+      <c r="I17">
+        <v>-0.1990553994945434</v>
+      </c>
+      <c r="J17">
         <v>-0.1489322907443359</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>-0.299325805</v>
       </c>
       <c r="B18">
-        <v>-0.09695975630230945</v>
+        <v>-0.117190169769105</v>
       </c>
       <c r="C18">
+        <v>-0.1094137241269779</v>
+      </c>
+      <c r="D18">
+        <v>-0.1667501113320243</v>
+      </c>
+      <c r="E18">
         <v>-0.103157267432596</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>-0.1097067851312427</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>-0.1097067853197501</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>-0.1131998732377857</v>
       </c>
-      <c r="G18">
+      <c r="I18">
+        <v>-0.1277631068519397</v>
+      </c>
+      <c r="J18">
         <v>-0.08336662813044261</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>-0.909290358</v>
       </c>
       <c r="B19">
-        <v>-0.8733186784908152</v>
+        <v>-0.9219526200415645</v>
       </c>
       <c r="C19">
+        <v>-1.022425885782239</v>
+      </c>
+      <c r="D19">
+        <v>-1.072195198065376</v>
+      </c>
+      <c r="E19">
         <v>-0.9026258607315484</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>-0.9176292049692324</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>-0.9176292053422501</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>-0.9245819430692997</v>
       </c>
-      <c r="G19">
+      <c r="I19">
+        <v>-0.9506318603772181</v>
+      </c>
+      <c r="J19">
         <v>-0.8861102095696293</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>-1.006159673</v>
       </c>
       <c r="B20">
-        <v>-0.9569088066778769</v>
+        <v>-1.027631261042042</v>
       </c>
       <c r="C20">
+        <v>-1.137946492604863</v>
+      </c>
+      <c r="D20">
+        <v>-1.198305849387536</v>
+      </c>
+      <c r="E20">
         <v>-1.010262692379597</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>-1.026601595446046</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>-1.026601595853055</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>-1.034180793429537</v>
       </c>
-      <c r="G20">
+      <c r="I20">
+        <v>-1.062580120015171</v>
+      </c>
+      <c r="J20">
         <v>-0.9933916749061793</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>-1.032778528</v>
       </c>
       <c r="B21">
-        <v>-0.9297481881278522</v>
+        <v>-0.994799733359641</v>
       </c>
       <c r="C21">
+        <v>-1.112382335460167</v>
+      </c>
+      <c r="D21">
+        <v>-1.174169802816977</v>
+      </c>
+      <c r="E21">
         <v>-0.9734512895628561</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>-0.9910202949801884</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>-0.9910202954177529</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>-0.9991516520007423</v>
       </c>
-      <c r="G21">
+      <c r="I21">
+        <v>-1.028963272975921</v>
+      </c>
+      <c r="J21">
         <v>-0.9453984153251</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>-1.351767382</v>
       </c>
       <c r="B22">
-        <v>-1.273693731141757</v>
+        <v>-1.357523728040164</v>
       </c>
       <c r="C22">
+        <v>-1.381679691918147</v>
+      </c>
+      <c r="D22">
+        <v>-1.454361890903906</v>
+      </c>
+      <c r="E22">
         <v>-1.329072310766891</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>-1.351607185382093</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>-1.351607185944371</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>-1.36211105544093</v>
       </c>
-      <c r="G22">
+      <c r="I22">
+        <v>-1.401320410854134</v>
+      </c>
+      <c r="J22">
         <v>-1.295422596703115</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>-1.349975863</v>
       </c>
       <c r="B23">
-        <v>-1.364061201693723</v>
+        <v>-1.436363496252893</v>
       </c>
       <c r="C23">
+        <v>-1.37660537645689</v>
+      </c>
+      <c r="D23">
+        <v>-1.447440958410226</v>
+      </c>
+      <c r="E23">
         <v>-1.399781814249527</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>-1.425103712380033</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>-1.425103713012967</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>-1.436947460978502</v>
       </c>
-      <c r="G23">
+      <c r="I23">
+        <v>-1.48142892219813</v>
+      </c>
+      <c r="J23">
         <v>-1.350476491340525</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>-1.316829649</v>
       </c>
       <c r="B24">
-        <v>-1.296477597478247</v>
+        <v>-1.384375511964711</v>
       </c>
       <c r="C24">
+        <v>-1.341933593201625</v>
+      </c>
+      <c r="D24">
+        <v>-1.415278478010328</v>
+      </c>
+      <c r="E24">
         <v>-1.35436062008634</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>-1.377348526402267</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>-1.377348526976699</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>-1.388099137074467</v>
       </c>
-      <c r="G24">
+      <c r="I24">
+        <v>-1.428784548783204</v>
+      </c>
+      <c r="J24">
         <v>-1.315887833568148</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>-1.162164831</v>
       </c>
       <c r="B25">
-        <v>-1.130354771562407</v>
+        <v>-1.208523948690917</v>
       </c>
       <c r="C25">
+        <v>-1.229049676885238</v>
+      </c>
+      <c r="D25">
+        <v>-1.300067052681468</v>
+      </c>
+      <c r="E25">
         <v>-1.179108829459755</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>-1.200429993807765</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>-1.200429994340595</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>-1.210400123713229</v>
       </c>
-      <c r="G25">
+      <c r="I25">
+        <v>-1.248154046192423</v>
+      </c>
+      <c r="J25">
         <v>-1.13850409133788</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>-2.374889683</v>
       </c>
       <c r="B26">
-        <v>-2.063272367374358</v>
+        <v>-2.203514422569788</v>
       </c>
       <c r="C26">
+        <v>-1.791100132939893</v>
+      </c>
+      <c r="D26">
+        <v>-1.852585850836608</v>
+      </c>
+      <c r="E26">
         <v>-2.191095127489394</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>-2.219207703426577</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>-2.219207704126827</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>-2.232297765175668</v>
       </c>
-      <c r="G26">
+      <c r="I26">
+        <v>-2.28108723589469</v>
+      </c>
+      <c r="J26">
         <v>-2.235605778131953</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>-2.362980599</v>
       </c>
       <c r="B27">
-        <v>-2.167017838908409</v>
+        <v>-2.25383584010028</v>
       </c>
       <c r="C27">
+        <v>-1.871530564858148</v>
+      </c>
+      <c r="D27">
+        <v>-1.913066988007447</v>
+      </c>
+      <c r="E27">
         <v>-2.242829833972606</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>-2.26954348542542</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>-2.269543486090317</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>-2.281963905603286</v>
       </c>
-      <c r="G27">
+      <c r="I27">
+        <v>-2.328373648559366</v>
+      </c>
+      <c r="J27">
         <v>-2.332178462525504</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>-1.854352008</v>
       </c>
       <c r="B28">
-        <v>-1.612814861884535</v>
+        <v>-1.694002501593443</v>
       </c>
       <c r="C28">
+        <v>-1.751990226685757</v>
+      </c>
+      <c r="D28">
+        <v>-1.811616419201398</v>
+      </c>
+      <c r="E28">
         <v>-1.677916796432195</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>-1.700014033447471</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>-1.700014033998621</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>-1.71026988716609</v>
       </c>
-      <c r="G28">
+      <c r="I28">
+        <v>-1.748544484194146</v>
+      </c>
+      <c r="J28">
         <v>-1.71109959989883</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>-1.20254712</v>
       </c>
       <c r="B29">
-        <v>-0.7133074630007163</v>
+        <v>-0.7388195486982237</v>
       </c>
       <c r="C29">
+        <v>-0.8261378447602234</v>
+      </c>
+      <c r="D29">
+        <v>-0.8661547432369054</v>
+      </c>
+      <c r="E29">
         <v>-0.7160588878465588</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>-0.7294430134240464</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>-0.7294430137577445</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>-0.7356327876291792</v>
       </c>
-      <c r="G29">
+      <c r="I29">
+        <v>-0.7587604772700126</v>
+      </c>
+      <c r="J29">
         <v>-0.6915835404347206</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>-1.403060604</v>
       </c>
       <c r="B30">
-        <v>-1.09966305444002</v>
+        <v>-1.1353957149983</v>
       </c>
       <c r="C30">
+        <v>-1.258280692199678</v>
+      </c>
+      <c r="D30">
+        <v>-1.293979263658379</v>
+      </c>
+      <c r="E30">
         <v>-1.116429807779472</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>-1.132304107376489</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>-1.132304107771715</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>-1.139640852848483</v>
       </c>
-      <c r="G30">
+      <c r="I30">
+        <v>-1.166987734073937</v>
+      </c>
+      <c r="J30">
         <v>-1.12194822639214</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>-1.491966078</v>
       </c>
       <c r="B31">
-        <v>-1.112083237280334</v>
+        <v>-1.15191447423667</v>
       </c>
       <c r="C31">
+        <v>-1.269862775292454</v>
+      </c>
+      <c r="D31">
+        <v>-1.30981144329705</v>
+      </c>
+      <c r="E31">
         <v>-1.132190338211361</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>-1.148439683174682</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>-1.148439683579868</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>-1.15597106459293</v>
       </c>
-      <c r="G31">
+      <c r="I31">
+        <v>-1.184282907872466</v>
+      </c>
+      <c r="J31">
         <v>-1.135204250080333</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>-1.323266071</v>
       </c>
       <c r="B32">
-        <v>-0.8596635358521639</v>
+        <v>-0.8765168772969435</v>
       </c>
       <c r="C32">
+        <v>-0.977133106634523</v>
+      </c>
+      <c r="D32">
+        <v>-1.003962518957861</v>
+      </c>
+      <c r="E32">
         <v>-0.8552612747054298</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>-0.8684399918969627</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>-0.868439992224517</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>-0.8745307379429249</v>
       </c>
-      <c r="G32">
+      <c r="I32">
+        <v>-0.8974309666128529</v>
+      </c>
+      <c r="J32">
         <v>-0.848627499158727</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>-1.144581365</v>
       </c>
       <c r="B33">
-        <v>-0.7203459294139135</v>
+        <v>-0.7341883454077257</v>
       </c>
       <c r="C33">
+        <v>-0.8233061210499567</v>
+      </c>
+      <c r="D33">
+        <v>-0.8501303865698884</v>
+      </c>
+      <c r="E33">
         <v>-0.7134787339916555</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>-0.7253103504515525</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>-0.7253103507455461</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>-0.7307719370026069</v>
       </c>
-      <c r="G33">
+      <c r="I33">
+        <v>-0.7513256242963303</v>
+      </c>
+      <c r="J33">
         <v>-0.7016930141178348</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>-0.89859408</v>
       </c>
       <c r="B34">
-        <v>-0.5404287851468489</v>
+        <v>-0.5542359184481118</v>
       </c>
       <c r="C34">
+        <v>-0.6211704827582704</v>
+      </c>
+      <c r="D34">
+        <v>-0.6543822817031802</v>
+      </c>
+      <c r="E34">
         <v>-0.5362914325537921</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>-0.5468950843611383</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>-0.5468950846235613</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>-0.5517618277565083</v>
       </c>
-      <c r="G34">
+      <c r="I34">
+        <v>-0.5697152343225761</v>
+      </c>
+      <c r="J34">
         <v>-0.5195406881093685</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>-1.208296977</v>
       </c>
       <c r="B35">
-        <v>-0.7023345218721273</v>
+        <v>-0.7170935443645891</v>
       </c>
       <c r="C35">
+        <v>-0.7981958169389716</v>
+      </c>
+      <c r="D35">
+        <v>-0.8166378692945316</v>
+      </c>
+      <c r="E35">
         <v>-0.7084314210378974</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>-0.7191022026906388</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>-0.719102202951817</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>-0.7239201870173599</v>
       </c>
-      <c r="G35">
+      <c r="I35">
+        <v>-0.7399458052381511</v>
+      </c>
+      <c r="J35">
         <v>-0.7078418715600006</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>-1.259727733</v>
       </c>
       <c r="B36">
-        <v>-0.7006244839313758</v>
+        <v>-0.7163759421450732</v>
       </c>
       <c r="C36">
+        <v>-0.7993351912139869</v>
+      </c>
+      <c r="D36">
+        <v>-0.8181088692154966</v>
+      </c>
+      <c r="E36">
         <v>-0.7071923379211776</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>-0.7178270148469375</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>-0.7178270151076845</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>-0.7226387202112171</v>
       </c>
-      <c r="G36">
+      <c r="I36">
+        <v>-0.7391052809423205</v>
+      </c>
+      <c r="J36">
         <v>-0.7067170207077795</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>-1.383918</v>
       </c>
       <c r="B37">
-        <v>-0.7909431814531883</v>
+        <v>-0.8078134098658957</v>
       </c>
       <c r="C37">
+        <v>-0.9060274827517955</v>
+      </c>
+      <c r="D37">
+        <v>-0.9224768213395524</v>
+      </c>
+      <c r="E37">
         <v>-0.7963800683557558</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>-0.8075894300850623</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>-0.8075894303607927</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>-0.8126863512122036</v>
       </c>
-      <c r="G37">
+      <c r="I37">
+        <v>-0.8307840693912248</v>
+      </c>
+      <c r="J37">
         <v>-0.801283373741968</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>-0.507959834</v>
       </c>
       <c r="B38">
-        <v>-0.167494504564316</v>
+        <v>-0.2074126431067658</v>
       </c>
       <c r="C38">
+        <v>-0.1740252536823903</v>
+      </c>
+      <c r="D38">
+        <v>-0.2405395555213876</v>
+      </c>
+      <c r="E38">
         <v>-0.1901078508686297</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>-0.19652226355782</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>-0.1965222637169931</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>-0.1994601295049093</v>
       </c>
-      <c r="G38">
+      <c r="I38">
+        <v>-0.2106960838124961</v>
+      </c>
+      <c r="J38">
         <v>-0.1742167256863216</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>-0.476870668</v>
       </c>
       <c r="B39">
-        <v>-0.207011562256822</v>
+        <v>-0.1816222815636901</v>
       </c>
       <c r="C39">
+        <v>-0.2213401160007692</v>
+      </c>
+      <c r="D39">
+        <v>-0.2165145198232282</v>
+      </c>
+      <c r="E39">
         <v>-0.1647365539150142</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>-0.1702112442250324</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>-0.1702112443635299</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>-0.172775795098726</v>
       </c>
-      <c r="G39">
+      <c r="I39">
+        <v>-0.1831762942337608</v>
+      </c>
+      <c r="J39">
         <v>-0.1499098381129114</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>-0.803788133</v>
       </c>
       <c r="B40">
-        <v>-0.5778277134518562</v>
+        <v>-0.58485141349193</v>
       </c>
       <c r="C40">
+        <v>-0.6564737539803808</v>
+      </c>
+      <c r="D40">
+        <v>-0.6882425215285245</v>
+      </c>
+      <c r="E40">
         <v>-0.5660124834358298</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>-0.5765273600518352</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>-0.5765273603098636</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>-0.5813306121422616</v>
       </c>
-      <c r="G40">
+      <c r="I40">
+        <v>-0.5984473830193887</v>
+      </c>
+      <c r="J40">
         <v>-0.5536730402827519</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>-1.016775122</v>
       </c>
       <c r="B41">
-        <v>-1.115705939912659</v>
+        <v>-1.136309853296368</v>
       </c>
       <c r="C41">
+        <v>-1.248531689586573</v>
+      </c>
+      <c r="D41">
+        <v>-1.265539197841644</v>
+      </c>
+      <c r="E41">
         <v>-1.120715707919582</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>-1.135025947281842</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>-1.135025947635655</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>-1.14160255141822</v>
       </c>
-      <c r="G41">
+      <c r="I41">
+        <v>-1.16578838632363</v>
+      </c>
+      <c r="J41">
         <v>-1.141990292006422</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>-0.429762109</v>
       </c>
       <c r="B42">
-        <v>-0.4401632795700461</v>
+        <v>-0.4716908278625516</v>
       </c>
       <c r="C42">
+        <v>-0.5317312498406234</v>
+      </c>
+      <c r="D42">
+        <v>-0.5941594912767401</v>
+      </c>
+      <c r="E42">
         <v>-0.4482593396299852</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>-0.461101517843432</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>-0.4611015181644058</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>-0.4670787039996955</v>
       </c>
-      <c r="G42">
+      <c r="I42">
+        <v>-0.4896999036545409</v>
+      </c>
+      <c r="J42">
         <v>-0.420095386691189</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>0.294720854</v>
       </c>
       <c r="B43">
-        <v>0.5051672873192186</v>
+        <v>0.5869115600794291</v>
       </c>
       <c r="C43">
+        <v>0.563871157615311</v>
+      </c>
+      <c r="D43">
+        <v>0.6130698826633076</v>
+      </c>
+      <c r="E43">
         <v>0.5904372667016768</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>0.5849165487747254</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>0.5849165486386989</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>0.5824086727859795</v>
       </c>
-      <c r="G43">
+      <c r="I43">
+        <v>0.5739955665603852</v>
+      </c>
+      <c r="J43">
         <v>0.541830986868886</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>0.297543939</v>
       </c>
       <c r="B44">
-        <v>0.6603100672396829</v>
+        <v>0.742580528021594</v>
       </c>
       <c r="C44">
+        <v>0.7074025188817771</v>
+      </c>
+      <c r="D44">
+        <v>0.7679950175948462</v>
+      </c>
+      <c r="E44">
         <v>0.7450805418792643</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>0.7415262423600851</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>0.7415262422735028</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>0.739962251894033</v>
       </c>
-      <c r="G44">
+      <c r="I44">
+        <v>0.7354290619732117</v>
+      </c>
+      <c r="J44">
         <v>0.6954764025328104</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>0.6970562769999999</v>
       </c>
       <c r="B45">
-        <v>0.9938255149660643</v>
+        <v>1.090717274284225</v>
       </c>
       <c r="C45">
+        <v>1.010001869469948</v>
+      </c>
+      <c r="D45">
+        <v>1.066260379270207</v>
+      </c>
+      <c r="E45">
         <v>1.08335277183252</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>1.083921276046402</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>1.083921276063309</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>1.084287514478306</v>
       </c>
-      <c r="G45">
+      <c r="I45">
+        <v>1.086792565245082</v>
+      </c>
+      <c r="J45">
         <v>0.9962494112841163</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>0.537453922</v>
       </c>
       <c r="B46">
-        <v>1.056924099810267</v>
+        <v>1.141012838903114</v>
       </c>
       <c r="C46">
+        <v>1.067721735416104</v>
+      </c>
+      <c r="D46">
+        <v>1.106834224766321</v>
+      </c>
+      <c r="E46">
         <v>1.13076544986625</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>1.132394803126745</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>1.132394803170953</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>1.133267883212495</v>
       </c>
-      <c r="G46">
+      <c r="I46">
+        <v>1.137857377456711</v>
+      </c>
+      <c r="J46">
         <v>1.051167024529392</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>0.744423795</v>
       </c>
       <c r="B47">
-        <v>1.024682355156574</v>
+        <v>1.107826745279047</v>
       </c>
       <c r="C47">
+        <v>1.077919536293999</v>
+      </c>
+      <c r="D47">
+        <v>1.111390852917088</v>
+      </c>
+      <c r="E47">
         <v>1.096819297375833</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>1.097893354421583</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>1.097893354452068</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>1.098488422981905</v>
       </c>
-      <c r="G47">
+      <c r="I47">
+        <v>1.101801846014184</v>
+      </c>
+      <c r="J47">
         <v>1.00933848336329</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>0.901568559</v>
       </c>
       <c r="B48">
-        <v>1.050981261819225</v>
+        <v>1.180343725096971</v>
       </c>
       <c r="C48">
+        <v>1.073146182217574</v>
+      </c>
+      <c r="D48">
+        <v>1.214166545864208</v>
+      </c>
+      <c r="E48">
         <v>1.1683087148819</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>1.167576455346043</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>1.16757645533003</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>1.167292708656382</v>
       </c>
-      <c r="G48">
+      <c r="I48">
+        <v>1.167082995214182</v>
+      </c>
+      <c r="J48">
         <v>1.029116584378212</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>0.868054445</v>
       </c>
       <c r="B49">
-        <v>1.003221190953869</v>
+        <v>1.1413292403118</v>
       </c>
       <c r="C49">
+        <v>1.045148761730908</v>
+      </c>
+      <c r="D49">
+        <v>1.170059529094669</v>
+      </c>
+      <c r="E49">
         <v>1.131006532449429</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>1.130075621241826</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>1.130075621220318</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>1.12969266610185</v>
       </c>
-      <c r="G49">
+      <c r="I49">
+        <v>1.128885545356726</v>
+      </c>
+      <c r="J49">
         <v>0.9849035204015697</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>0.277593737</v>
       </c>
       <c r="B50">
-        <v>0.6329727548056544</v>
+        <v>0.7454337975086591</v>
       </c>
       <c r="C50">
+        <v>0.725594047053652</v>
+      </c>
+      <c r="D50">
+        <v>0.7863376084013176</v>
+      </c>
+      <c r="E50">
         <v>0.7497336964133239</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>0.7457664627106444</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>0.7457664626121006</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>0.7439479604651533</v>
       </c>
-      <c r="G50">
+      <c r="I50">
+        <v>0.7373518213459948</v>
+      </c>
+      <c r="J50">
         <v>0.6481138079208718</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>0.21477772</v>
       </c>
       <c r="B51">
-        <v>0.4759002703867012</v>
+        <v>0.5852354106138273</v>
       </c>
       <c r="C51">
+        <v>0.559376138674012</v>
+      </c>
+      <c r="D51">
+        <v>0.6240069984363947</v>
+      </c>
+      <c r="E51">
         <v>0.5946150273215686</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>0.588708695486637</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>0.5887086953383486</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>0.5859661224387863</v>
       </c>
-      <c r="G51">
+      <c r="I51">
+        <v>0.5757120341410128</v>
+      </c>
+      <c r="J51">
         <v>0.5018578750653658</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>0.222558601</v>
       </c>
       <c r="B52">
-        <v>0.6221356225472181</v>
+        <v>0.7466603069525758</v>
       </c>
       <c r="C52">
+        <v>0.7129803853034216</v>
+      </c>
+      <c r="D52">
+        <v>0.7867329157882179</v>
+      </c>
+      <c r="E52">
         <v>0.7498428950451047</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>0.7453001879481881</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>0.7453001878351053</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>0.743197284867034</v>
       </c>
-      <c r="G52">
+      <c r="I52">
+        <v>0.7354012795600128</v>
+      </c>
+      <c r="J52">
         <v>0.6316642437892924</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>0.670515246</v>
       </c>
       <c r="B53">
-        <v>1.185115375367895</v>
+        <v>1.385864701512679</v>
       </c>
       <c r="C53">
+        <v>1.243531823696504</v>
+      </c>
+      <c r="D53">
+        <v>1.407323065591147</v>
+      </c>
+      <c r="E53">
         <v>1.368572275685037</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>1.369554659515949</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>1.369554659541616</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>1.370036250251055</v>
       </c>
-      <c r="G53">
+      <c r="I53">
+        <v>1.371996051095675</v>
+      </c>
+      <c r="J53">
         <v>1.126713731647132</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>0.668332347</v>
       </c>
       <c r="B54">
-        <v>1.18335478096576</v>
+        <v>1.333886277167564</v>
       </c>
       <c r="C54">
+        <v>1.241897777491483</v>
+      </c>
+      <c r="D54">
+        <v>1.288905973358365</v>
+      </c>
+      <c r="E54">
         <v>1.320296682708662</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>1.323381852679667</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>1.323381852758463</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>1.324883051545835</v>
       </c>
-      <c r="G54">
+      <c r="I54">
+        <v>1.330811397792283</v>
+      </c>
+      <c r="J54">
         <v>1.145925966332086</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>0.600753663</v>
       </c>
       <c r="B55">
-        <v>0.8471294471905598</v>
+        <v>0.9582665668632715</v>
       </c>
       <c r="C55">
+        <v>1.003134073374607</v>
+      </c>
+      <c r="D55">
+        <v>0.9747332449076225</v>
+      </c>
+      <c r="E55">
         <v>0.9536704396289585</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>0.9545997171656446</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>0.9545997171902891</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>0.9550678392283672</v>
       </c>
-      <c r="G55">
+      <c r="I55">
+        <v>0.9566283080682393</v>
+      </c>
+      <c r="J55">
         <v>0.831065780427506</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>0.490908996</v>
       </c>
       <c r="B56">
-        <v>0.7503694895223353</v>
+        <v>0.8566876594023194</v>
       </c>
       <c r="C56">
+        <v>0.9150128181440091</v>
+      </c>
+      <c r="D56">
+        <v>0.8799724820808095</v>
+      </c>
+      <c r="E56">
         <v>0.8563117919395061</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>0.8566861672941819</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>0.8566861673043337</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>0.8568846326406642</v>
       </c>
-      <c r="G56">
+      <c r="I56">
+        <v>0.8572869907784176</v>
+      </c>
+      <c r="J56">
         <v>0.7444894628851394</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>0.124636728</v>
       </c>
       <c r="B57">
-        <v>0.2074319283775729</v>
+        <v>0.3059084382741258</v>
       </c>
       <c r="C57">
+        <v>0.2953282889179903</v>
+      </c>
+      <c r="D57">
+        <v>0.2873127808272133</v>
+      </c>
+      <c r="E57">
         <v>0.3212937379220623</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>0.3143059185304813</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>0.314305918351889</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>0.3109735839133341</v>
       </c>
-      <c r="G57">
+      <c r="I57">
+        <v>0.2976088078035692</v>
+      </c>
+      <c r="J57">
         <v>0.2311578513512813</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>0.20714928</v>
       </c>
       <c r="B58">
-        <v>0.2425388387508944</v>
+        <v>0.3293463138101435</v>
       </c>
       <c r="C58">
+        <v>0.3271375241439862</v>
+      </c>
+      <c r="D58">
+        <v>0.3038784457114393</v>
+      </c>
+      <c r="E58">
         <v>0.3426440538124692</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>0.3365299196948935</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>0.3365299195398279</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>0.3336294587956703</v>
       </c>
-      <c r="G58">
+      <c r="I58">
+        <v>0.3219493305610079</v>
+      </c>
+      <c r="J58">
         <v>0.2638313200355087</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>0.566646485</v>
       </c>
       <c r="B59">
-        <v>0.9190203116022025</v>
+        <v>1.016700246231457</v>
       </c>
       <c r="C59">
+        <v>1.036562896347332</v>
+      </c>
+      <c r="D59">
+        <v>1.044704715507453</v>
+      </c>
+      <c r="E59">
         <v>1.012853128941149</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>1.013732958788309</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>1.013732958813104</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>1.01421054905782</v>
       </c>
-      <c r="G59">
+      <c r="I59">
+        <v>1.016378473104368</v>
+      </c>
+      <c r="J59">
         <v>0.9106419935031707</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>0.703800792</v>
       </c>
       <c r="B60">
-        <v>0.9779504577954887</v>
+        <v>1.063000856164264</v>
       </c>
       <c r="C60">
+        <v>1.079621168046768</v>
+      </c>
+      <c r="D60">
+        <v>1.067690042858935</v>
+      </c>
+      <c r="E60">
         <v>1.058399193149869</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>1.061024063467133</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>1.061024063535857</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>1.062341312089778</v>
       </c>
-      <c r="G60">
+      <c r="I60">
+        <v>1.067795300375675</v>
+      </c>
+      <c r="J60">
         <v>0.9732962334192573</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>0.6773799150000001</v>
       </c>
       <c r="B61">
-        <v>0.9201589647086119</v>
+        <v>1.019861959598145</v>
       </c>
       <c r="C61">
+        <v>1.004718229800453</v>
+      </c>
+      <c r="D61">
+        <v>1.02654816332048</v>
+      </c>
+      <c r="E61">
         <v>1.01815367276893</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>1.019081952787412</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>1.019081952812797</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>1.019597488318047</v>
       </c>
-      <c r="G61">
+      <c r="I61">
+        <v>1.022087881844588</v>
+      </c>
+      <c r="J61">
         <v>0.9240766828572289</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>0.568899519</v>
       </c>
       <c r="B62">
-        <v>0.9440522357584259</v>
+        <v>1.044107195861401</v>
       </c>
       <c r="C62">
+        <v>1.003361395637123</v>
+      </c>
+      <c r="D62">
+        <v>1.024912089299211</v>
+      </c>
+      <c r="E62">
         <v>1.041883271309752</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>1.043228369934369</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>1.043228369969968</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>1.043947068428554</v>
       </c>
-      <c r="G62">
+      <c r="I62">
+        <v>1.047271939806122</v>
+      </c>
+      <c r="J62">
         <v>0.9505687111183414</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>1.937580523</v>
       </c>
       <c r="B63">
-        <v>1.718047989373956</v>
+        <v>1.955712778352741</v>
       </c>
       <c r="C63">
+        <v>1.049443595699176</v>
+      </c>
+      <c r="D63">
+        <v>1.616403693044847</v>
+      </c>
+      <c r="E63">
         <v>1.91861430735933</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>1.922180117555384</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>1.922180117645324</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>1.923925077829861</v>
       </c>
-      <c r="G63">
+      <c r="I63">
+        <v>1.931992170857597</v>
+      </c>
+      <c r="J63">
         <v>1.645199758761506</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>2.026030569</v>
       </c>
       <c r="B64">
-        <v>1.721391953464553</v>
+        <v>1.938492711667397</v>
       </c>
       <c r="C64">
+        <v>1.035334833863099</v>
+      </c>
+      <c r="D64">
+        <v>1.594785549566259</v>
+      </c>
+      <c r="E64">
         <v>1.90350814033088</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>1.907056391160726</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>1.907056391250561</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>1.908802922945455</v>
       </c>
-      <c r="G64">
+      <c r="I64">
+        <v>1.917123019330817</v>
+      </c>
+      <c r="J64">
         <v>1.658834392223029</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>2.024119212</v>
       </c>
       <c r="B65">
-        <v>1.700467487574502</v>
+        <v>1.853472242177145</v>
       </c>
       <c r="C65">
+        <v>1.066098252127943</v>
+      </c>
+      <c r="D65">
+        <v>1.561361165511772</v>
+      </c>
+      <c r="E65">
         <v>1.826354528945391</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>1.829821746583473</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>1.829821746672583</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>1.831555835843249</v>
       </c>
-      <c r="G65">
+      <c r="I65">
+        <v>1.840757677102296</v>
+      </c>
+      <c r="J65">
         <v>1.664297381280956</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>1.756726246</v>
       </c>
       <c r="B66">
-        <v>1.420942986827279</v>
+        <v>1.55571227004196</v>
       </c>
       <c r="C66">
+        <v>1.052002777569694</v>
+      </c>
+      <c r="D66">
+        <v>1.330735902304734</v>
+      </c>
+      <c r="E66">
         <v>1.540091505383543</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>1.542532979252615</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>1.542532979316079</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>1.543796842776565</v>
       </c>
-      <c r="G66">
+      <c r="I66">
+        <v>1.550753443530624</v>
+      </c>
+      <c r="J66">
         <v>1.414247299160975</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>1.327422035</v>
       </c>
       <c r="B67">
-        <v>0.9614348705240248</v>
+        <v>1.032854664406683</v>
       </c>
       <c r="C67">
+        <v>0.7658406805269264</v>
+      </c>
+      <c r="D67">
+        <v>0.9764172392846924</v>
+      </c>
+      <c r="E67">
         <v>1.035215283498972</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>1.032699377148199</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>1.032699377088659</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>1.031679674850116</v>
       </c>
-      <c r="G67">
+      <c r="I67">
+        <v>1.032624015592106</v>
+      </c>
+      <c r="J67">
         <v>1.006156397698353</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>1.49137015</v>
       </c>
       <c r="B68">
-        <v>1.07279971869775</v>
+        <v>1.128884167742598</v>
       </c>
       <c r="C68">
+        <v>0.8876460062252177</v>
+      </c>
+      <c r="D68">
+        <v>1.03969950754</v>
+      </c>
+      <c r="E68">
         <v>1.125273460425797</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>1.125032276769897</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>1.125032276768729</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>1.125096874407709</v>
       </c>
-      <c r="G68">
+      <c r="I68">
+        <v>1.13207018437507</v>
+      </c>
+      <c r="J68">
         <v>1.108068406600607</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>1.563162867</v>
       </c>
       <c r="B69">
-        <v>1.16972905500528</v>
+        <v>1.231123923857274</v>
       </c>
       <c r="C69">
+        <v>0.942782700344288</v>
+      </c>
+      <c r="D69">
+        <v>1.106652846110949</v>
+      </c>
+      <c r="E69">
         <v>1.223066239608862</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>1.223755009862353</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>1.223755009884358</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>1.224251291167902</v>
       </c>
-      <c r="G69">
+      <c r="I69">
+        <v>1.232122433333493</v>
+      </c>
+      <c r="J69">
         <v>1.197823056425501</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>2.17485842</v>
       </c>
       <c r="B70">
-        <v>1.478779232197249</v>
+        <v>1.577427547516803</v>
       </c>
       <c r="C70">
+        <v>0.8654325850872964</v>
+      </c>
+      <c r="D70">
+        <v>1.284982535436956</v>
+      </c>
+      <c r="E70">
         <v>1.562111987749178</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>1.56334813081559</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>1.563348130849656</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>1.564083225824793</v>
       </c>
-      <c r="G70">
+      <c r="I70">
+        <v>1.572193280051405</v>
+      </c>
+      <c r="J70">
         <v>1.49993371297438</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>2.042542925</v>
       </c>
       <c r="B71">
-        <v>1.173610262853094</v>
+        <v>1.333298080051702</v>
       </c>
       <c r="C71">
+        <v>0.7757812419053038</v>
+      </c>
+      <c r="D71">
+        <v>1.334330003995122</v>
+      </c>
+      <c r="E71">
         <v>1.328505607203807</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>1.325044669240259</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>1.325044669154353</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>1.323512687638479</v>
       </c>
-      <c r="G71">
+      <c r="I71">
+        <v>1.320207586305178</v>
+      </c>
+      <c r="J71">
         <v>1.199147356167107</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>1.888604828</v>
       </c>
       <c r="B72">
-        <v>1.109722947150441</v>
+        <v>1.255306145889133</v>
       </c>
       <c r="C72">
+        <v>0.7982596868605877</v>
+      </c>
+      <c r="D72">
+        <v>1.272019452968172</v>
+      </c>
+      <c r="E72">
         <v>1.250675559237949</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>1.247042383107341</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>1.247042383017506</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>1.245433250215271</v>
       </c>
-      <c r="G72">
+      <c r="I72">
+        <v>1.241873828043973</v>
+      </c>
+      <c r="J72">
         <v>1.13791894232807</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>2.04003079</v>
       </c>
       <c r="B73">
-        <v>1.178125551371506</v>
+        <v>1.311906613095918</v>
       </c>
       <c r="C73">
+        <v>0.9550979462240713</v>
+      </c>
+      <c r="D73">
+        <v>1.290723752964092</v>
+      </c>
+      <c r="E73">
         <v>1.303398665180184</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>1.301991653897429</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>1.30199165386413</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>1.301429882238112</v>
       </c>
-      <c r="G73">
+      <c r="I73">
+        <v>1.301503860221685</v>
+      </c>
+      <c r="J73">
         <v>1.188648156243201</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>2.000153766</v>
       </c>
       <c r="B74">
-        <v>1.166744489815899</v>
+        <v>1.290595733548666</v>
       </c>
       <c r="C74">
+        <v>0.9515720703043405</v>
+      </c>
+      <c r="D74">
+        <v>1.288220412841928</v>
+      </c>
+      <c r="E74">
         <v>1.283568861984743</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>1.281933598227382</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>1.281933598188652</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>1.281267877948308</v>
       </c>
-      <c r="G74">
+      <c r="I74">
+        <v>1.281203449931195</v>
+      </c>
+      <c r="J74">
         <v>1.179610302587054</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>0.864914137</v>
       </c>
       <c r="B75">
-        <v>0.3653292858066981</v>
+        <v>0.4004417789580117</v>
       </c>
       <c r="C75">
+        <v>0.4328977873106798</v>
+      </c>
+      <c r="D75">
+        <v>0.4367221039663302</v>
+      </c>
+      <c r="E75">
         <v>0.4172702544897503</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>0.4118622053751659</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>0.411862205240886</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>0.4093975246369648</v>
       </c>
-      <c r="G75">
+      <c r="I75">
+        <v>0.4005313827634828</v>
+      </c>
+      <c r="J75">
         <v>0.3871719467219034</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>0.717927851</v>
       </c>
       <c r="B76">
-        <v>0.1971767841062899</v>
+        <v>0.2098346370413737</v>
       </c>
       <c r="C76">
+        <v>0.2282781416744863</v>
+      </c>
+      <c r="D76">
+        <v>0.222123487909818</v>
+      </c>
+      <c r="E76">
         <v>0.2315927874110991</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>0.2243415774435821</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>0.2243415772635079</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>0.22101547176706</v>
       </c>
-      <c r="G76">
+      <c r="I76">
+        <v>0.2089656254395744</v>
+      </c>
+      <c r="J76">
         <v>0.2191204466921818</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>0.407859612</v>
       </c>
       <c r="B77">
-        <v>-0.08917890243370125</v>
+        <v>-0.134488317849601</v>
       </c>
       <c r="C77">
+        <v>-0.1159226341945657</v>
+      </c>
+      <c r="D77">
+        <v>-0.1301842493457354</v>
+      </c>
+      <c r="E77">
         <v>-0.05711784084400279</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>-0.06780902679399564</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>-0.06780902707252126</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>-0.07298311846789401</v>
       </c>
-      <c r="G77">
+      <c r="I77">
+        <v>-0.09349110285898751</v>
+      </c>
+      <c r="J77">
         <v>-0.06972166537065182</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>0.9410866919999999</v>
       </c>
       <c r="B78">
-        <v>0.460225944481612</v>
+        <v>0.5115738473705508</v>
       </c>
       <c r="C78">
+        <v>0.4872301171830957</v>
+      </c>
+      <c r="D78">
+        <v>0.5582743400911017</v>
+      </c>
+      <c r="E78">
         <v>0.5248676749305324</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>0.5188106263133286</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>0.5188106261651719</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>0.5160898416250271</v>
       </c>
-      <c r="G78">
+      <c r="I78">
+        <v>0.5081865754482617</v>
+      </c>
+      <c r="J78">
         <v>0.5051884055902298</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>1.134364172</v>
       </c>
       <c r="B79">
-        <v>0.6978335353535283</v>
+        <v>0.7680553565753787</v>
       </c>
       <c r="C79">
+        <v>0.6939382685414875</v>
+      </c>
+      <c r="D79">
+        <v>0.8226943286817783</v>
+      </c>
+      <c r="E79">
         <v>0.7762106772344529</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>0.7716717008588493</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>0.7716717007481253</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>0.7696575587945443</v>
       </c>
-      <c r="G79">
+      <c r="I79">
+        <v>0.7643596261003115</v>
+      </c>
+      <c r="J79">
         <v>0.7335767799813825</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>1.021170297</v>
       </c>
       <c r="B80">
-        <v>0.6011294342057483</v>
+        <v>0.6736363256059597</v>
       </c>
       <c r="C80">
+        <v>0.5766176073230636</v>
+      </c>
+      <c r="D80">
+        <v>0.7423750155145455</v>
+      </c>
+      <c r="E80">
         <v>0.6850506257087273</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>0.6785806787576024</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>0.6785806785978191</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>0.6756539329163769</v>
       </c>
-      <c r="G80">
+      <c r="I80">
+        <v>0.6668684913219977</v>
+      </c>
+      <c r="J80">
         <v>0.643788163734563</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>0.744577103</v>
       </c>
       <c r="B81">
-        <v>0.2644167979979002</v>
+        <v>0.2671018265170643</v>
       </c>
       <c r="C81">
+        <v>0.2480773931726297</v>
+      </c>
+      <c r="D81">
+        <v>0.3056104838219643</v>
+      </c>
+      <c r="E81">
         <v>0.2874606426060285</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>0.27834931117795</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>0.2783493109533084</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>0.274223266353541</v>
       </c>
-      <c r="G81">
+      <c r="I81">
+        <v>0.262565612385303</v>
+      </c>
+      <c r="J81">
         <v>0.2895246821550105</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>0.739134427</v>
       </c>
       <c r="B82">
-        <v>0.3576743193687332</v>
+        <v>0.3824097813653705</v>
       </c>
       <c r="C82">
+        <v>0.3724742142244738</v>
+      </c>
+      <c r="D82">
+        <v>0.4182475399444014</v>
+      </c>
+      <c r="E82">
         <v>0.4015719806441793</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>0.3956639323289707</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>0.3956639321907141</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>0.3931582077799103</v>
       </c>
-      <c r="G82">
+      <c r="I82">
+        <v>0.3771345187066647</v>
+      </c>
+      <c r="J82">
         <v>0.4248451715397248</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>0.226931775</v>
       </c>
       <c r="B83">
-        <v>-0.01029987957034174</v>
+        <v>-0.05124223606150702</v>
       </c>
       <c r="C83">
+        <v>-0.01701580105878173</v>
+      </c>
+      <c r="D83">
+        <v>-0.04027632793984601</v>
+      </c>
+      <c r="E83">
         <v>-0.03223321751517418</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>-0.03960825910728287</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>-0.03960825929973607</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>-0.04310191541709707</v>
       </c>
-      <c r="G83">
+      <c r="I83">
+        <v>-0.05653707789570787</v>
+      </c>
+      <c r="J83">
         <v>0.02238610514769158</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>0.153490455</v>
       </c>
       <c r="B84">
-        <v>-0.123203892066692</v>
+        <v>-0.1677363021246468</v>
       </c>
       <c r="C84">
+        <v>-0.14187221989446</v>
+      </c>
+      <c r="D84">
+        <v>-0.1715372896661566</v>
+      </c>
+      <c r="E84">
         <v>-0.146952673515572</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>-0.1560892129753816</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>-0.156089213209029</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>-0.1603549137248048</v>
       </c>
-      <c r="G84">
+      <c r="I84">
+        <v>-0.1764870962975726</v>
+      </c>
+      <c r="J84">
         <v>-0.09205911572122323</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>-0.030111902</v>
       </c>
       <c r="B85">
-        <v>-0.1293191483417646</v>
+        <v>-0.2330062845752818</v>
       </c>
       <c r="C85">
+        <v>-0.1573876893194365</v>
+      </c>
+      <c r="D85">
+        <v>-0.2427043250939226</v>
+      </c>
+      <c r="E85">
         <v>-0.2108621532144228</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>-0.2216137827985139</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>-0.2216137830716361</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>-0.226607529286028</v>
       </c>
-      <c r="G85">
+      <c r="I85">
+        <v>-0.2452223513662765</v>
+      </c>
+      <c r="J85">
         <v>-0.1479435295820461</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>0.007322334</v>
       </c>
       <c r="B86">
-        <v>-0.3219736483606532</v>
+        <v>-0.3177632585026564</v>
       </c>
       <c r="C86">
+        <v>-0.3625299752660425</v>
+      </c>
+      <c r="D86">
+        <v>-0.3390299356455309</v>
+      </c>
+      <c r="E86">
         <v>-0.2944964774594132</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>-0.3067369818199728</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>-0.3067369821294541</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>-0.3124099540813611</v>
       </c>
-      <c r="G86">
+      <c r="I86">
+        <v>-0.3334033921833175</v>
+      </c>
+      <c r="J86">
         <v>-0.2294686901449007</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>-0.472334039</v>
       </c>
       <c r="B87">
-        <v>-0.5564566342242193</v>
+        <v>-0.617171183702468</v>
       </c>
       <c r="C87">
+        <v>-0.6384746515564084</v>
+      </c>
+      <c r="D87">
+        <v>-0.6736139314439888</v>
+      </c>
+      <c r="E87">
         <v>-0.5906498018400227</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>-0.6042721379886344</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>-0.604272138331598</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>-0.6105561504948798</v>
       </c>
-      <c r="G87">
+      <c r="I87">
+        <v>-0.6336125423225021</v>
+      </c>
+      <c r="J87">
         <v>-0.5301091368814393</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>-0.205993001</v>
       </c>
       <c r="B88">
-        <v>-0.3724474759346174</v>
+        <v>-0.3239133254851859</v>
       </c>
       <c r="C88">
+        <v>-0.4242384879507508</v>
+      </c>
+      <c r="D88">
+        <v>-0.3331536751924811</v>
+      </c>
+      <c r="E88">
         <v>-0.2999554593689773</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <v>-0.3119615503294276</v>
       </c>
-      <c r="E88">
+      <c r="G88">
         <v>-0.3119615506338553</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>-0.3175090621355275</v>
       </c>
-      <c r="G88">
+      <c r="I88">
+        <v>-0.3378222710188827</v>
+      </c>
+      <c r="J88">
         <v>-0.2179333511457502</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>0.358585953</v>
       </c>
       <c r="B89">
-        <v>-0.1143012476681977</v>
+        <v>-0.1422659638130288</v>
       </c>
       <c r="C89">
+        <v>-0.1593951267678982</v>
+      </c>
+      <c r="D89">
+        <v>-0.1334551756613611</v>
+      </c>
+      <c r="E89">
         <v>-0.1218603339664684</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <v>-0.1302975178064788</v>
       </c>
-      <c r="E89">
+      <c r="G89">
         <v>-0.1302975180259522</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>-0.1342505014455568</v>
       </c>
-      <c r="G89">
+      <c r="I89">
+        <v>-0.1489896639442357</v>
+      </c>
+      <c r="J89">
         <v>-0.02760761138771327</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>-0.193909793</v>
       </c>
       <c r="B90">
-        <v>-0.5910934882339803</v>
+        <v>-0.6549982355236162</v>
       </c>
       <c r="C90">
+        <v>-0.6698758427335159</v>
+      </c>
+      <c r="D90">
+        <v>-0.6950545305694104</v>
+      </c>
+      <c r="E90">
         <v>-0.6299148990947199</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>-0.6431287281209059</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>-0.6431287284555172</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>-0.649232490521337</v>
       </c>
-      <c r="G90">
+      <c r="I90">
+        <v>-0.671684091108284</v>
+      </c>
+      <c r="J90">
         <v>-0.5605179033717381</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>-0.333806235</v>
       </c>
       <c r="B91">
-        <v>-0.7020019618103988</v>
+        <v>-0.7707967073906291</v>
       </c>
       <c r="C91">
+        <v>-0.8050883833048801</v>
+      </c>
+      <c r="D91">
+        <v>-0.8328584641626618</v>
+      </c>
+      <c r="E91">
         <v>-0.7444582378607995</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>-0.7587691003933872</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>-0.758769100755406</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>-0.7653855107946405</v>
       </c>
-      <c r="G91">
+      <c r="I91">
+        <v>-0.7897646599885756</v>
+      </c>
+      <c r="J91">
         <v>-0.6789047319657819</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>-0.152969901</v>
       </c>
       <c r="B92">
-        <v>-0.6194286271562888</v>
+        <v>-0.6935361792956022</v>
       </c>
       <c r="C92">
+        <v>-0.716017755447631</v>
+      </c>
+      <c r="D92">
+        <v>-0.7405223525427208</v>
+      </c>
+      <c r="E92">
         <v>-0.6679130755142025</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>-0.6816774112889623</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>-0.6816774116382632</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>-0.6880518390846337</v>
       </c>
-      <c r="G92">
+      <c r="I92">
+        <v>-0.7115759945723923</v>
+      </c>
+      <c r="J92">
         <v>-0.5886906538458425</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>0.084887538</v>
       </c>
       <c r="B93">
-        <v>-0.3969643427998338</v>
+        <v>-0.2906846082282996</v>
       </c>
       <c r="C93">
+        <v>-0.4606631333583292</v>
+      </c>
+      <c r="D93">
+        <v>-0.2875548287541151</v>
+      </c>
+      <c r="E93">
         <v>-0.2690405910740145</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>-0.278696228239388</v>
       </c>
-      <c r="E93">
+      <c r="G93">
         <v>-0.2786962284897306</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>-0.2832336994047246</v>
       </c>
-      <c r="G93">
+      <c r="I93">
+        <v>-0.300279598618492</v>
+      </c>
+      <c r="J93">
         <v>-0.1705673620892598</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>-0.477853004</v>
       </c>
       <c r="B94">
-        <v>-0.7942979778945382</v>
+        <v>-0.860610993712711</v>
       </c>
       <c r="C94">
+        <v>-0.904254117510203</v>
+      </c>
+      <c r="D94">
+        <v>-0.935601948364105</v>
+      </c>
+      <c r="E94">
         <v>-0.8327225152853488</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>-0.8479808944064655</v>
       </c>
-      <c r="E94">
+      <c r="G94">
         <v>-0.8479808947911122</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>-0.8550187081583752</v>
       </c>
-      <c r="G94">
+      <c r="I94">
+        <v>-0.8807997946766251</v>
+      </c>
+      <c r="J94">
         <v>-0.7768960410357622</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>-0.196793988</v>
       </c>
       <c r="B95">
-        <v>-0.7435313428539334</v>
+        <v>-0.8081540746184284</v>
       </c>
       <c r="C95">
+        <v>-0.8392458439856647</v>
+      </c>
+      <c r="D95">
+        <v>-0.8695864398996966</v>
+      </c>
+      <c r="E95">
         <v>-0.7811707505577974</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>-0.7961612946997894</v>
       </c>
-      <c r="E95">
+      <c r="G95">
         <v>-0.7961612950776323</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>-0.8030662446815926</v>
       </c>
-      <c r="G95">
+      <c r="I95">
+        <v>-0.8282443153167854</v>
+      </c>
+      <c r="J95">
         <v>-0.7203033408219499</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>-0.035189774</v>
       </c>
       <c r="B96">
-        <v>-0.4335791271192193</v>
+        <v>-0.5049407239096796</v>
       </c>
       <c r="C96">
+        <v>-0.494464665819343</v>
+      </c>
+      <c r="D96">
+        <v>-0.5233367239904725</v>
+      </c>
+      <c r="E96">
         <v>-0.4808765686949416</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>-0.4929051143172605</v>
       </c>
-      <c r="E96">
+      <c r="G96">
         <v>-0.4929051146228852</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>-0.4984651398042451</v>
       </c>
-      <c r="G96">
+      <c r="I96">
+        <v>-0.5189138000916461</v>
+      </c>
+      <c r="J96">
         <v>-0.4006749619498467</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>-0.119794953</v>
       </c>
       <c r="B97">
-        <v>-0.404243253745006</v>
+        <v>-0.4757981464961759</v>
       </c>
       <c r="C97">
+        <v>-0.4647772511481104</v>
+      </c>
+      <c r="D97">
+        <v>-0.4920050218410958</v>
+      </c>
+      <c r="E97">
         <v>-0.452220163106223</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>-0.463813442390871</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>-0.4638134426861502</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>-0.4691844652986189</v>
       </c>
-      <c r="G97">
+      <c r="I97">
+        <v>-0.4890349429727392</v>
+      </c>
+      <c r="J97">
         <v>-0.3709512298581063</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>-0.137195461</v>
       </c>
       <c r="B98">
-        <v>-0.4243394773419532</v>
+        <v>-0.4962077765769174</v>
       </c>
       <c r="C98">
+        <v>-0.4865318732847213</v>
+      </c>
+      <c r="D98">
+        <v>-0.5144492459636805</v>
+      </c>
+      <c r="E98">
         <v>-0.4722894283644932</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <v>-0.4841895206879798</v>
       </c>
-      <c r="E98">
+      <c r="G98">
         <v>-0.4841895209906713</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>-0.4896968857896459</v>
       </c>
-      <c r="G98">
+      <c r="I98">
+        <v>-0.5100038678776477</v>
+      </c>
+      <c r="J98">
         <v>-0.3909946164372927</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>-0.048780735</v>
       </c>
       <c r="B99">
-        <v>-0.3893109197620678</v>
+        <v>-0.2629895660432023</v>
       </c>
       <c r="C99">
+        <v>-0.4323333238770455</v>
+      </c>
+      <c r="D99">
+        <v>-0.2579199105137207</v>
+      </c>
+      <c r="E99">
         <v>-0.2418741256089735</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <v>-0.2512151152049407</v>
       </c>
-      <c r="E99">
+      <c r="G99">
         <v>-0.2512151154455905</v>
       </c>
-      <c r="F99">
+      <c r="H99">
         <v>-0.2555775486414023</v>
       </c>
-      <c r="G99">
+      <c r="I99">
+        <v>-0.2719114693113555</v>
+      </c>
+      <c r="J99">
         <v>-0.1601068183235851</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>-0.265775876</v>
       </c>
       <c r="B100">
-        <v>-0.3528589748830254</v>
+        <v>-0.4304122511906426</v>
       </c>
       <c r="C100">
+        <v>-0.4044828027425643</v>
+      </c>
+      <c r="D100">
+        <v>-0.4418977860635222</v>
+      </c>
+      <c r="E100">
         <v>-0.407051826523356</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <v>-0.4184018864567367</v>
       </c>
-      <c r="E100">
+      <c r="G100">
         <v>-0.4184018867455636</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>-0.4236529301318411</v>
       </c>
-      <c r="G100">
+      <c r="I100">
+        <v>-0.4430095255527338</v>
+      </c>
+      <c r="J100">
         <v>-0.3268394789505347</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>-1.383090189</v>
       </c>
       <c r="B101">
-        <v>-1.242536675578128</v>
+        <v>-1.300689294146847</v>
       </c>
       <c r="C101">
+        <v>-1.424906397015801</v>
+      </c>
+      <c r="D101">
+        <v>-1.467630823219539</v>
+      </c>
+      <c r="E101">
         <v>-1.287202246558772</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <v>-1.30699334195384</v>
       </c>
-      <c r="E101">
+      <c r="G101">
         <v>-1.306993342450223</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>-1.31610492692157</v>
       </c>
-      <c r="G101">
+      <c r="I101">
+        <v>-1.349090001343601</v>
+      </c>
+      <c r="J101">
         <v>-1.26567532029461</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>-1.491020681</v>
       </c>
       <c r="B102">
-        <v>-1.385894032631905</v>
+        <v>-1.458790370815161</v>
       </c>
       <c r="C102">
+        <v>-1.612591228617695</v>
+      </c>
+      <c r="D102">
+        <v>-1.662054756236296</v>
+      </c>
+      <c r="E102">
         <v>-1.439594407150559</v>
       </c>
-      <c r="D102">
+      <c r="F102">
         <v>-1.460650722100409</v>
       </c>
-      <c r="E102">
+      <c r="G102">
         <v>-1.460650722628671</v>
       </c>
-      <c r="F102">
+      <c r="H102">
         <v>-1.470366468437789</v>
       </c>
-      <c r="G102">
+      <c r="I102">
+        <v>-1.505814259837733</v>
+      </c>
+      <c r="J102">
         <v>-1.432714889748148</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>-1.726097843</v>
       </c>
       <c r="B103">
-        <v>-1.702353633170277</v>
+        <v>-1.790776833134185</v>
       </c>
       <c r="C103">
+        <v>-1.990604869803628</v>
+      </c>
+      <c r="D103">
+        <v>-2.051709737311748</v>
+      </c>
+      <c r="E103">
         <v>-1.773416506248661</v>
       </c>
-      <c r="D103">
+      <c r="F103">
         <v>-1.797530914181787</v>
       </c>
-      <c r="E103">
+      <c r="G103">
         <v>-1.797530914786437</v>
       </c>
-      <c r="F103">
+      <c r="H103">
         <v>-1.808670996876799</v>
       </c>
-      <c r="G103">
+      <c r="I103">
+        <v>-1.84938790938621</v>
+      </c>
+      <c r="J103">
         <v>-1.802777519797235</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>-1.861585716</v>
       </c>
       <c r="B104">
-        <v>-1.782043228802146</v>
+        <v>-1.876661858279846</v>
       </c>
       <c r="C104">
+        <v>-2.084386822484062</v>
+      </c>
+      <c r="D104">
+        <v>-2.149438052565607</v>
+      </c>
+      <c r="E104">
         <v>-1.858079301222482</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <v>-1.883358156834155</v>
       </c>
-      <c r="E104">
+      <c r="G104">
         <v>-1.883358157468342</v>
       </c>
-      <c r="F104">
+      <c r="H104">
         <v>-1.895046717616985</v>
       </c>
-      <c r="G104">
+      <c r="I104">
+        <v>-1.937832605809036</v>
+      </c>
+      <c r="J104">
         <v>-1.887738365787519</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>-1.803675785</v>
       </c>
       <c r="B105">
-        <v>-1.772379315368531</v>
+        <v>-1.84153869254446</v>
       </c>
       <c r="C105">
+        <v>-2.042577405394415</v>
+      </c>
+      <c r="D105">
+        <v>-2.096737065005145</v>
+      </c>
+      <c r="E105">
         <v>-1.821530130503094</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <v>-1.845828090844742</v>
       </c>
-      <c r="E105">
+      <c r="G105">
         <v>-1.845828091453941</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>-1.857063462267473</v>
       </c>
-      <c r="G105">
+      <c r="I105">
+        <v>-1.898301727882856</v>
+      </c>
+      <c r="J105">
         <v>-1.863828220484408</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>-1.009398128</v>
       </c>
       <c r="B106">
-        <v>-1.091207342284895</v>
+        <v>-1.141406841527059</v>
       </c>
       <c r="C106">
+        <v>-1.258020612060013</v>
+      </c>
+      <c r="D106">
+        <v>-1.298758101936414</v>
+      </c>
+      <c r="E106">
         <v>-1.134646542997663</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>-1.152805629883574</v>
       </c>
-      <c r="E106">
+      <c r="G106">
         <v>-1.152805630339836</v>
       </c>
-      <c r="F106">
+      <c r="H106">
         <v>-1.161180024739062</v>
       </c>
-      <c r="G106">
+      <c r="I106">
+        <v>-1.191771943582622</v>
+      </c>
+      <c r="J106">
         <v>-1.101643525890307</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>-0.412606248</v>
       </c>
       <c r="B107">
-        <v>-0.4472729498426251</v>
+        <v>-0.3176650160195481</v>
       </c>
       <c r="C107">
+        <v>-0.50137032408809</v>
+      </c>
+      <c r="D107">
+        <v>-0.3179485582513409</v>
+      </c>
+      <c r="E107">
         <v>-0.2953371698171287</v>
       </c>
-      <c r="D107">
+      <c r="F107">
         <v>-0.3055308886389215</v>
       </c>
-      <c r="E107">
+      <c r="G107">
         <v>-0.3055308888999684</v>
       </c>
-      <c r="F107">
+      <c r="H107">
         <v>-0.3102564693715925</v>
       </c>
-      <c r="G107">
+      <c r="I107">
+        <v>-0.3276857953112858</v>
+      </c>
+      <c r="J107">
         <v>-0.2071176925180599</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>-0.51999747</v>
       </c>
       <c r="B108">
-        <v>-0.4881779255095352</v>
+        <v>-0.555913106383176</v>
       </c>
       <c r="C108">
+        <v>-0.5540476812275414</v>
+      </c>
+      <c r="D108">
+        <v>-0.5808035698909184</v>
+      </c>
+      <c r="E108">
         <v>-0.5314003155889194</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <v>-0.5439225390353566</v>
       </c>
-      <c r="E108">
+      <c r="G108">
         <v>-0.5439225393529716</v>
       </c>
-      <c r="F108">
+      <c r="H108">
         <v>-0.5497062129812695</v>
       </c>
-      <c r="G108">
+      <c r="I108">
+        <v>-0.5709485783737075</v>
+      </c>
+      <c r="J108">
         <v>-0.454133990793211</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>0.068281413</v>
       </c>
       <c r="B109">
-        <v>-0.3478539561546258</v>
+        <v>-0.42686865935449</v>
       </c>
       <c r="C109">
+        <v>-0.404127144273089</v>
+      </c>
+      <c r="D109">
+        <v>-0.4372347189560674</v>
+      </c>
+      <c r="E109">
         <v>-0.4037352138563914</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <v>-0.414854702108526</v>
       </c>
-      <c r="E109">
+      <c r="G109">
         <v>-0.414854702392389</v>
       </c>
-      <c r="F109">
+      <c r="H109">
         <v>-0.4200127192977114</v>
       </c>
-      <c r="G109">
+      <c r="I109">
+        <v>-0.4391072434872491</v>
+      </c>
+      <c r="J109">
         <v>-0.3196533557051983</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>0.724845088</v>
       </c>
       <c r="B110">
-        <v>0.4451728280569931</v>
+        <v>0.4004517366521265</v>
       </c>
       <c r="C110">
+        <v>0.3159691308600586</v>
+      </c>
+      <c r="D110">
+        <v>0.368298403354958</v>
+      </c>
+      <c r="E110">
         <v>0.4104444353823931</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <v>0.4101247427066094</v>
       </c>
-      <c r="E110">
+      <c r="G110">
         <v>0.4101247426122452</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>0.4085029819517018</v>
       </c>
-      <c r="G110">
+      <c r="I110">
+        <v>0.4017442865794833</v>
+      </c>
+      <c r="J110">
         <v>0.5330296114187707</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>0.843675493</v>
       </c>
       <c r="B111">
-        <v>0.6322977375995245</v>
+        <v>0.5921419271041274</v>
       </c>
       <c r="C111">
+        <v>0.474215179322097</v>
+      </c>
+      <c r="D111">
+        <v>0.5335485865531875</v>
+      </c>
+      <c r="E111">
         <v>0.6044502596610882</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <v>0.6000654977487668</v>
       </c>
-      <c r="E111">
+      <c r="G111">
         <v>0.6000654976973874</v>
       </c>
-      <c r="F111">
+      <c r="H111">
         <v>0.5992380241196275</v>
       </c>
-      <c r="G111">
+      <c r="I111">
+        <v>0.5949957875579062</v>
+      </c>
+      <c r="J111">
         <v>0.7133350511716161</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>1.000687569</v>
       </c>
       <c r="B112">
-        <v>0.698071728066054</v>
+        <v>0.6544450714398065</v>
       </c>
       <c r="C112">
+        <v>0.4861898896021808</v>
+      </c>
+      <c r="D112">
+        <v>0.558126906021071</v>
+      </c>
+      <c r="E112">
         <v>0.6657298684328016</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <v>0.66198585512306</v>
       </c>
-      <c r="E112">
+      <c r="G112">
         <v>0.6619858550791292</v>
       </c>
-      <c r="F112">
+      <c r="H112">
         <v>0.6613044117265461</v>
       </c>
-      <c r="G112">
+      <c r="I112">
+        <v>0.6576259999822743</v>
+      </c>
+      <c r="J112">
         <v>0.7834464190815663</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>1.420234526</v>
       </c>
       <c r="B113">
-        <v>1.196360507998222</v>
+        <v>1.139324114415675</v>
       </c>
       <c r="C113">
+        <v>0.7356468528527906</v>
+      </c>
+      <c r="D113">
+        <v>0.8443656544846668</v>
+      </c>
+      <c r="E113">
         <v>1.138927734481486</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <v>1.141190644105715</v>
       </c>
-      <c r="E113">
+      <c r="G113">
         <v>1.141190644179217</v>
       </c>
-      <c r="F113">
+      <c r="H113">
         <v>1.142699567367369</v>
       </c>
-      <c r="G113">
+      <c r="I113">
+        <v>1.146189177492262</v>
+      </c>
+      <c r="J113">
         <v>1.263595955274349</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>1.57372364</v>
       </c>
       <c r="B114">
-        <v>1.517765791326277</v>
+        <v>1.449840401084676</v>
       </c>
       <c r="C114">
+        <v>0.7818807979792479</v>
+      </c>
+      <c r="D114">
+        <v>0.9226478940317766</v>
+      </c>
+      <c r="E114">
         <v>1.441779426645229</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <v>1.447120001292309</v>
       </c>
-      <c r="E114">
+      <c r="G114">
         <v>1.447120001439639</v>
       </c>
-      <c r="F114">
+      <c r="H114">
         <v>1.450014687292445</v>
       </c>
-      <c r="G114">
+      <c r="I114">
+        <v>1.458094689408048</v>
+      </c>
+      <c r="J114">
         <v>1.57122795029076</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>1.732814752</v>
       </c>
       <c r="B115">
-        <v>2.026779887978098</v>
+        <v>1.936202759884607</v>
       </c>
       <c r="C115">
+        <v>0.8212465568418974</v>
+      </c>
+      <c r="D115">
+        <v>1.063133909199304</v>
+      </c>
+      <c r="E115">
         <v>1.913636089134408</v>
       </c>
-      <c r="D115">
+      <c r="F115">
         <v>1.922851645190362</v>
       </c>
-      <c r="E115">
+      <c r="G115">
         <v>1.922851645431418</v>
       </c>
-      <c r="F115">
+      <c r="H115">
         <v>1.927494529027456</v>
       </c>
-      <c r="G115">
+      <c r="I115">
+        <v>1.940166964143053</v>
+      </c>
+      <c r="J115">
         <v>2.042105111733679</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>2.09753689</v>
       </c>
       <c r="B116">
-        <v>2.359231774301917</v>
+        <v>2.252205088517316</v>
       </c>
       <c r="C116">
+        <v>0.7262390307660898</v>
+      </c>
+      <c r="D116">
+        <v>1.022324007300327</v>
+      </c>
+      <c r="E116">
         <v>2.220870322834775</v>
       </c>
-      <c r="D116">
+      <c r="F116">
         <v>2.233149291386256</v>
       </c>
-      <c r="E116">
+      <c r="G116">
         <v>2.233149291703308</v>
       </c>
-      <c r="F116">
+      <c r="H116">
         <v>2.239222085024869</v>
       </c>
-      <c r="G116">
+      <c r="I116">
+        <v>2.25627192208831</v>
+      </c>
+      <c r="J116">
         <v>2.349984413325926</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>1.876536832</v>
       </c>
       <c r="B117">
-        <v>2.235761871238643</v>
+        <v>2.147487919592872</v>
       </c>
       <c r="C117">
+        <v>0.7444742762291137</v>
+      </c>
+      <c r="D117">
+        <v>1.048198999264115</v>
+      </c>
+      <c r="E117">
         <v>2.1217735854353</v>
       </c>
-      <c r="D117">
+      <c r="F117">
         <v>2.132541607057412</v>
       </c>
-      <c r="E117">
+      <c r="G117">
         <v>2.132541607336175</v>
       </c>
-      <c r="F117">
+      <c r="H117">
         <v>2.137895058995097</v>
       </c>
-      <c r="G117">
+      <c r="I117">
+        <v>2.151755524818834</v>
+      </c>
+      <c r="J117">
         <v>2.239516780384915</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>1.903128061</v>
       </c>
       <c r="B118">
-        <v>2.010992834642479</v>
+        <v>1.931769210205264</v>
       </c>
       <c r="C118">
+        <v>0.7590804735877154</v>
+      </c>
+      <c r="D118">
+        <v>0.9802372132034989</v>
+      </c>
+      <c r="E118">
         <v>1.910998802276656</v>
       </c>
-      <c r="D118">
+      <c r="F118">
         <v>1.920496100952908</v>
       </c>
-      <c r="E118">
+      <c r="G118">
         <v>1.920496101201006</v>
       </c>
-      <c r="F118">
+      <c r="H118">
         <v>1.925279924663632</v>
       </c>
-      <c r="G118">
+      <c r="I118">
+        <v>1.938564757378678</v>
+      </c>
+      <c r="J118">
         <v>2.031873279243104</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>2.565704836</v>
       </c>
       <c r="B119">
-        <v>2.483624172228174</v>
+        <v>2.381948740921486</v>
       </c>
       <c r="C119">
+        <v>0.7535348447322623</v>
+      </c>
+      <c r="D119">
+        <v>1.036028004449587</v>
+      </c>
+      <c r="E119">
         <v>2.347867078190701</v>
       </c>
-      <c r="D119">
+      <c r="F119">
         <v>2.361860041626549</v>
       </c>
-      <c r="E119">
+      <c r="G119">
         <v>2.36186004198611</v>
       </c>
-      <c r="F119">
+      <c r="H119">
         <v>2.368725058347885</v>
       </c>
-      <c r="G119">
+      <c r="I119">
+        <v>2.386748710679478</v>
+      </c>
+      <c r="J119">
         <v>2.453607424400509</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>2.524999221</v>
       </c>
       <c r="B120">
-        <v>2.398929262636702</v>
+        <v>2.297596118668992</v>
       </c>
       <c r="C120">
+        <v>0.8075520994472964</v>
+      </c>
+      <c r="D120">
+        <v>1.094814099419622</v>
+      </c>
+      <c r="E120">
         <v>2.264791083081229</v>
       </c>
-      <c r="D120">
+      <c r="F120">
         <v>2.277655983960501</v>
       </c>
-      <c r="E120">
+      <c r="G120">
         <v>2.277655984291843</v>
       </c>
-      <c r="F120">
+      <c r="H120">
         <v>2.283986617755386</v>
       </c>
-      <c r="G120">
+      <c r="I120">
+        <v>2.300286636718534</v>
+      </c>
+      <c r="J120">
         <v>2.373190449496452</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>2.253887829</v>
       </c>
       <c r="B121">
-        <v>2.477716824236363</v>
+        <v>2.373618498258861</v>
       </c>
       <c r="C121">
+        <v>0.8020708124099784</v>
+      </c>
+      <c r="D121">
+        <v>1.108918947607755</v>
+      </c>
+      <c r="E121">
         <v>2.337597863373499</v>
       </c>
-      <c r="D121">
+      <c r="F121">
         <v>2.35108118376012</v>
       </c>
-      <c r="E121">
+      <c r="G121">
         <v>2.351081184106667</v>
       </c>
-      <c r="F121">
+      <c r="H121">
         <v>2.357695324314451</v>
       </c>
-      <c r="G121">
+      <c r="I121">
+        <v>2.373953394314203</v>
+      </c>
+      <c r="J121">
         <v>2.43961207380167</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>1.717105097</v>
       </c>
       <c r="B122">
-        <v>1.884450814541805</v>
+        <v>1.802260768733745</v>
       </c>
       <c r="C122">
+        <v>0.8674512648673894</v>
+      </c>
+      <c r="D122">
+        <v>1.062078142715051</v>
+      </c>
+      <c r="E122">
         <v>1.783384754937871</v>
       </c>
-      <c r="D122">
+      <c r="F122">
         <v>1.791811063723202</v>
       </c>
-      <c r="E122">
+      <c r="G122">
         <v>1.791811063945119</v>
       </c>
-      <c r="F122">
+      <c r="H122">
         <v>1.796092103334253</v>
       </c>
-      <c r="G122">
+      <c r="I122">
+        <v>1.807768184670548</v>
+      </c>
+      <c r="J122">
         <v>1.905781308112387</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>1.56643693</v>
       </c>
       <c r="B123">
-        <v>1.628462348295308</v>
+        <v>1.570652381522931</v>
       </c>
       <c r="C123">
+        <v>0.8443567920862454</v>
+      </c>
+      <c r="D123">
+        <v>1.014560196021953</v>
+      </c>
+      <c r="E123">
         <v>1.55920066829861</v>
       </c>
-      <c r="D123">
+      <c r="F123">
         <v>1.56512640738806</v>
       </c>
-      <c r="E123">
+      <c r="G123">
         <v>1.565126407547484</v>
       </c>
-      <c r="F123">
+      <c r="H123">
         <v>1.568238474466707</v>
       </c>
-      <c r="G123">
+      <c r="I123">
+        <v>1.575813790213702</v>
+      </c>
+      <c r="J123">
         <v>1.668539222324505</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>1.670021813</v>
       </c>
       <c r="B124">
-        <v>1.702441986465196</v>
+        <v>1.635283208114581</v>
       </c>
       <c r="C124">
+        <v>0.8265986575240885</v>
+      </c>
+      <c r="D124">
+        <v>1.015622025189106</v>
+      </c>
+      <c r="E124">
         <v>1.622086007303784</v>
       </c>
-      <c r="D124">
+      <c r="F124">
         <v>1.628487953848189</v>
       </c>
-      <c r="E124">
+      <c r="G124">
         <v>1.628487954019576</v>
       </c>
-      <c r="F124">
+      <c r="H124">
         <v>1.631826588701895</v>
       </c>
-      <c r="G124">
+      <c r="I124">
+        <v>1.64038535397864</v>
+      </c>
+      <c r="J124">
         <v>1.741606885588422</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>1.289704565</v>
       </c>
       <c r="B125">
-        <v>1.249704866596093</v>
+        <v>1.191080968177286</v>
       </c>
       <c r="C125">
+        <v>0.7552310720190707</v>
+      </c>
+      <c r="D125">
+        <v>0.8691835006644527</v>
+      </c>
+      <c r="E125">
         <v>1.189432442931012</v>
       </c>
-      <c r="D125">
+      <c r="F125">
         <v>1.19219588760479</v>
       </c>
-      <c r="E125">
+      <c r="G125">
         <v>1.19219588768993</v>
       </c>
-      <c r="F125">
+      <c r="H125">
         <v>1.193921856266332</v>
       </c>
-      <c r="G125">
+      <c r="I125">
+        <v>1.198085110516188</v>
+      </c>
+      <c r="J125">
         <v>1.31427924716694</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>1.598926475</v>
       </c>
       <c r="B126">
-        <v>1.659937135006662</v>
+        <v>1.587705311991289</v>
       </c>
       <c r="C126">
+        <v>0.8020767259085599</v>
+      </c>
+      <c r="D126">
+        <v>0.9600645424754817</v>
+      </c>
+      <c r="E126">
         <v>1.575936361071197</v>
       </c>
-      <c r="D126">
+      <c r="F126">
         <v>1.582549870339095</v>
       </c>
-      <c r="E126">
+      <c r="G126">
         <v>1.582549870517123</v>
       </c>
-      <c r="F126">
+      <c r="H126">
         <v>1.586018099089088</v>
       </c>
-      <c r="G126">
+      <c r="I126">
+        <v>1.595791446528417</v>
+      </c>
+      <c r="J126">
         <v>1.703824255069722</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>1.548087648</v>
       </c>
       <c r="B127">
-        <v>1.345746132238603</v>
+        <v>1.275578621991441</v>
       </c>
       <c r="C127">
+        <v>0.7479652376576003</v>
+      </c>
+      <c r="D127">
+        <v>0.8862590808969577</v>
+      </c>
+      <c r="E127">
         <v>1.271791646626132</v>
       </c>
-      <c r="D127">
+      <c r="F127">
         <v>1.275074171178862</v>
       </c>
-      <c r="E127">
+      <c r="G127">
         <v>1.275074171276696</v>
       </c>
-      <c r="F127">
+      <c r="H127">
         <v>1.277041535154113</v>
       </c>
-      <c r="G127">
+      <c r="I127">
+        <v>1.282133392244178</v>
+      </c>
+      <c r="J127">
         <v>1.41197282472062</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>1.53687982</v>
       </c>
       <c r="B128">
-        <v>1.494388715854931</v>
+        <v>1.415091349802655</v>
       </c>
       <c r="C128">
+        <v>0.7268883967902096</v>
+      </c>
+      <c r="D128">
+        <v>0.8813880535171414</v>
+      </c>
+      <c r="E128">
         <v>1.408436185898802</v>
       </c>
-      <c r="D128">
+      <c r="F128">
         <v>1.413127676933909</v>
       </c>
-      <c r="E128">
+      <c r="G128">
         <v>1.413127677066306</v>
       </c>
-      <c r="F128">
+      <c r="H128">
         <v>1.415749259086638</v>
       </c>
-      <c r="G128">
+      <c r="I128">
+        <v>1.423256685243123</v>
+      </c>
+      <c r="J128">
         <v>1.557772472263892</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>1.443008135</v>
       </c>
       <c r="B129">
-        <v>1.331010760930374</v>
+        <v>1.260165844998416</v>
       </c>
       <c r="C129">
+        <v>0.7270099565647381</v>
+      </c>
+      <c r="D129">
+        <v>0.8664787330980472</v>
+      </c>
+      <c r="E129">
         <v>1.258002881543631</v>
       </c>
-      <c r="D129">
+      <c r="F129">
         <v>1.2609699190582</v>
       </c>
-      <c r="E129">
+      <c r="G129">
         <v>1.260969919148249</v>
       </c>
-      <c r="F129">
+      <c r="H129">
         <v>1.262793928831964</v>
       </c>
-      <c r="G129">
+      <c r="I129">
+        <v>1.267406677671011</v>
+      </c>
+      <c r="J129">
         <v>1.399391466757532</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>1.453311511</v>
       </c>
       <c r="B130">
-        <v>1.715167655956931</v>
+        <v>1.645182397911672</v>
       </c>
       <c r="C130">
+        <v>0.7603593678616047</v>
+      </c>
+      <c r="D130">
+        <v>0.9349157294772873</v>
+      </c>
+      <c r="E130">
         <v>1.63254213344127</v>
       </c>
-      <c r="D130">
+      <c r="F130">
         <v>1.639459832484115</v>
       </c>
-      <c r="E130">
+      <c r="G130">
         <v>1.639459832669177</v>
       </c>
-      <c r="F130">
+      <c r="H130">
         <v>1.64306511462491</v>
       </c>
-      <c r="G130">
+      <c r="I130">
+        <v>1.653207373622816</v>
+      </c>
+      <c r="J130">
         <v>1.759588299687065</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>0.170289762</v>
       </c>
       <c r="B131">
-        <v>0.7290943053175549</v>
+        <v>0.6839333083194281</v>
       </c>
       <c r="C131">
+        <v>0.4772333365206209</v>
+      </c>
+      <c r="D131">
+        <v>0.5456895446701607</v>
+      </c>
+      <c r="E131">
         <v>0.6952240039882664</v>
       </c>
-      <c r="D131">
+      <c r="F131">
         <v>0.691717597361892</v>
       </c>
-      <c r="E131">
+      <c r="G131">
         <v>0.6917175973354375</v>
       </c>
-      <c r="F131">
+      <c r="H131">
         <v>0.6913714699712052</v>
       </c>
-      <c r="G131">
+      <c r="I131">
+        <v>0.689096560259258</v>
+      </c>
+      <c r="J131">
         <v>0.8145337244058817</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>0.108929054</v>
       </c>
       <c r="B132">
-        <v>0.6707893853944404</v>
+        <v>0.623822310425387</v>
       </c>
       <c r="C132">
+        <v>0.4557727505008008</v>
+      </c>
+      <c r="D132">
+        <v>0.5234324159430157</v>
+      </c>
+      <c r="E132">
         <v>0.6368086797299086</v>
       </c>
-      <c r="D132">
+      <c r="F132">
         <v>0.6318909723386622</v>
       </c>
-      <c r="E132">
+      <c r="G132">
         <v>0.6318909722947289</v>
       </c>
-      <c r="F132">
+      <c r="H132">
         <v>0.6312139967211281</v>
       </c>
-      <c r="G132">
+      <c r="I132">
+        <v>0.6277151416852489</v>
+      </c>
+      <c r="J132">
         <v>0.7573792327927085</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>0.556826058</v>
       </c>
       <c r="B133">
-        <v>0.7145492094538416</v>
+        <v>0.6656792479090403</v>
       </c>
       <c r="C133">
+        <v>0.491294754180907</v>
+      </c>
+      <c r="D133">
+        <v>0.5616288383381163</v>
+      </c>
+      <c r="E133">
         <v>0.6767315167194654</v>
       </c>
-      <c r="D133">
+      <c r="F133">
         <v>0.6732122986788494</v>
       </c>
-      <c r="E133">
+      <c r="G133">
         <v>0.6732122986461226</v>
       </c>
-      <c r="F133">
+      <c r="H133">
         <v>0.672741812005861</v>
       </c>
-      <c r="G133">
+      <c r="I133">
+        <v>0.6699049833200135</v>
+      </c>
+      <c r="J133">
         <v>0.7996774651875518</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>0.756759764</v>
       </c>
       <c r="B134">
-        <v>0.9660493620674636</v>
+        <v>0.9124062851953783</v>
       </c>
       <c r="C134">
+        <v>0.6295420720435918</v>
+      </c>
+      <c r="D134">
+        <v>0.7205312521385731</v>
+      </c>
+      <c r="E134">
         <v>0.9171471515016463</v>
       </c>
-      <c r="D134">
+      <c r="F134">
         <v>0.917067507922452</v>
       </c>
-      <c r="E134">
+      <c r="G134">
         <v>0.917067507944844</v>
       </c>
-      <c r="F134">
+      <c r="H134">
         <v>0.91762431907191</v>
       </c>
-      <c r="G134">
+      <c r="I134">
+        <v>0.9181491063694435</v>
+      </c>
+      <c r="J134">
         <v>1.044794082911845</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>0.307333133</v>
       </c>
       <c r="B135">
-        <v>0.4555973451351225</v>
+        <v>0.4173659595475535</v>
       </c>
       <c r="C135">
+        <v>0.3517049719225521</v>
+      </c>
+      <c r="D135">
+        <v>0.3982188628632949</v>
+      </c>
+      <c r="E135">
         <v>0.4207167926896703</v>
       </c>
-      <c r="D135">
+      <c r="F135">
         <v>0.4266728837847202</v>
       </c>
-      <c r="E135">
+      <c r="G135">
         <v>0.4266728836950643</v>
       </c>
-      <c r="F135">
+      <c r="H135">
         <v>0.4251303498728718</v>
       </c>
-      <c r="G135">
+      <c r="I135">
+        <v>0.4185043236401558</v>
+      </c>
+      <c r="J135">
         <v>0.5376732796006134</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>0.419613927</v>
       </c>
       <c r="B136">
-        <v>0.6192570986720879</v>
+        <v>0.5767352406515757</v>
       </c>
       <c r="C136">
+        <v>0.4377680010951365</v>
+      </c>
+      <c r="D136">
+        <v>0.5032625000965329</v>
+      </c>
+      <c r="E136">
         <v>0.5909369538081316</v>
       </c>
-      <c r="D136">
+      <c r="F136">
         <v>0.5849916438091836</v>
       </c>
-      <c r="E136">
+      <c r="G136">
         <v>0.5849916437479579</v>
       </c>
-      <c r="F136">
+      <c r="H136">
         <v>0.5839873873480993</v>
       </c>
-      <c r="G136">
+      <c r="I136">
+        <v>0.5792387625383123</v>
+      </c>
+      <c r="J136">
         <v>0.7056419518582101</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>0.918398419</v>
       </c>
       <c r="B137">
-        <v>1.141466570818801</v>
+        <v>1.086004056313912</v>
       </c>
       <c r="C137">
+        <v>0.714142240602395</v>
+      </c>
+      <c r="D137">
+        <v>0.8176608365455583</v>
+      </c>
+      <c r="E137">
         <v>1.086877954255248</v>
       </c>
-      <c r="D137">
+      <c r="F137">
         <v>1.088617969644533</v>
       </c>
-      <c r="E137">
+      <c r="G137">
         <v>1.088617969706031</v>
       </c>
-      <c r="F137">
+      <c r="H137">
         <v>1.08990302472723</v>
       </c>
-      <c r="G137">
+      <c r="I137">
+        <v>1.092691596292522</v>
+      </c>
+      <c r="J137">
         <v>1.211261841635225</v>
       </c>
     </row>

--- a/table_best_models___spi-12__test.xlsx
+++ b/table_best_models___spi-12__test.xlsx
@@ -19,22 +19,22 @@
     <t>Observed</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $0.0) ($\beta = $0.0)</t>
+    <t>Lasso ($\beta = $0.0)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $0.1) ($\beta = $0.1)</t>
+    <t>Lasso ($\beta = $0.1)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $0.5) ($\beta = $0.5)</t>
+    <t>Lasso ($\beta = $0.5)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $1.0) ($\beta = $1.0)</t>
+    <t>Lasso ($\beta = $1.0)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $1.5) ($\beta = $1.5)</t>
+    <t>Lasso ($\beta = $1.5)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $2.0) ($\beta = $2.0)</t>
+    <t>Lasso ($\beta = $2.0)</t>
   </si>
 </sst>
 </file>
